--- a/db/catalog.xlsx
+++ b/db/catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seyanaracore/Documents/Projects/preact-module-calc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95900FC1-B073-B24E-A47A-64A9C7BCF95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D2168A-83FF-064B-9BF6-E99137E8140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export_ledexpress.csv" sheetId="1" r:id="rId1"/>
@@ -15552,14 +15552,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY709"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G516" sqref="G516:G524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15729,7 +15729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2226</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2254</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2246</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2259</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2267</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2229</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2228</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3256</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2247</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3257</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2414</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2255</v>
       </c>
@@ -16501,7 +16501,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2230</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2268</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2260</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2248</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2272</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>2231</v>
       </c>
@@ -16723,7 +16723,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3258</v>
       </c>
@@ -16779,7 +16779,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2602</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>2256</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>2261</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>2257</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>2232</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>2249</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>2262</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3259</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>2233</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>2258</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3260</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>2263</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>2250</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>2251</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>2264</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>2236</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>3144</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>2265</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>2252</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>2253</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>2266</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>2234</v>
       </c>
@@ -17633,7 +17633,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>2315</v>
       </c>
@@ -17692,7 +17692,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>2286</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>2340</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>3029</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>2294</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>2273</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>2276</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>2326</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>2295</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>2299</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>2296</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>2237</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>3132</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>3198</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>2300</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>3153</v>
       </c>
@@ -18610,7 +18610,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>2453</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>2277</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>2292</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>2269</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>2278</v>
       </c>
@@ -18884,7 +18884,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>2239</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>2318</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>2274</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>2235</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>2517</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>2289</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>2418</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>3030</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>2428</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>2328</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>2421</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>2301</v>
       </c>
@@ -19541,7 +19541,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>2302</v>
       </c>
@@ -19615,7 +19615,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>3133</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>3199</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>2354</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>2351</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>3154</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>2499</v>
       </c>
@@ -20005,7 +20005,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>2298</v>
       </c>
@@ -20067,7 +20067,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>2270</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>2306</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>2330</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>2271</v>
       </c>
@@ -20255,7 +20255,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>2241</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>2275</v>
       </c>
@@ -20325,7 +20325,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>2700</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>2913</v>
       </c>
@@ -20443,7 +20443,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>2313</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>2372</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="96" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>3031</v>
       </c>
@@ -20626,7 +20626,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>2481</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>2357</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>2541</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>2329</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>2303</v>
       </c>
@@ -20954,7 +20954,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>3200</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>2359</v>
       </c>
@@ -21075,7 +21075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>3155</v>
       </c>
@@ -21155,7 +21155,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>2577</v>
       </c>
@@ -21211,7 +21211,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>2407</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>2744</v>
       </c>
@@ -21326,7 +21326,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>2309</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>2455</v>
       </c>
@@ -21530,7 +21530,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>3032</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>2508</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>2524</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>2403</v>
       </c>
@@ -21775,7 +21775,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>2612</v>
       </c>
@@ -21831,7 +21831,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>2441</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>2323</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>2355</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>2845</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>2333</v>
       </c>
@@ -22132,7 +22132,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>2528</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>3033</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>2796</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>2382</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>2568</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>3202</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>2445</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>2642</v>
       </c>
@@ -22604,7 +22604,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="129" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>2806</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>2335</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="131" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>2374</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>2942</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="133" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>2334</v>
       </c>
@@ -22911,7 +22911,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="134" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>2336</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>2622</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="136" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>2401</v>
       </c>
@@ -23133,7 +23133,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>2560</v>
       </c>
@@ -23189,7 +23189,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="138" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>2344</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>3034</v>
       </c>
@@ -23331,7 +23331,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>3237</v>
       </c>
@@ -23387,7 +23387,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="141" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>2725</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="142" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>2487</v>
       </c>
@@ -23526,7 +23526,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>3203</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>2460</v>
       </c>
@@ -23647,7 +23647,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="145" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>2714</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="146" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>2832</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="147" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>2461</v>
       </c>
@@ -23821,7 +23821,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="148" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>2342</v>
       </c>
@@ -23886,7 +23886,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="149" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>2339</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="150" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>2668</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="151" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>2352</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="152" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>3035</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>3242</v>
       </c>
@@ -24229,7 +24229,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="154" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>2768</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="155" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>3204</v>
       </c>
@@ -24341,7 +24341,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="156" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>2535</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="157" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>2732</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="158" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>2757</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="159" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>2903</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="160" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>2369</v>
       </c>
@@ -24642,7 +24642,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>2347</v>
       </c>
@@ -24710,7 +24710,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>2462</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>2611</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="164" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>2425</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="165" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>2760</v>
       </c>
@@ -24964,7 +24964,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="166" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>3036</v>
       </c>
@@ -25029,7 +25029,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="167" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>3205</v>
       </c>
@@ -25085,7 +25085,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="168" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>2793</v>
       </c>
@@ -25150,7 +25150,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="169" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>2933</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="170" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>2390</v>
       </c>
@@ -25262,7 +25262,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>2516</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>2349</v>
       </c>
@@ -25386,7 +25386,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>2659</v>
       </c>
@@ -25442,7 +25442,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="174" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>2377</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>2836</v>
       </c>
@@ -25578,7 +25578,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="176" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>2830</v>
       </c>
@@ -25634,7 +25634,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="177" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>3037</v>
       </c>
@@ -25699,7 +25699,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="178" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>2801</v>
       </c>
@@ -25779,7 +25779,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>3206</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="180" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>2931</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="181" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>2850</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>2984</v>
       </c>
@@ -26018,7 +26018,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="183" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>2429</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="184" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>2534</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>2523</v>
       </c>
@@ -26228,7 +26228,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>2378</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>2843</v>
       </c>
@@ -26358,7 +26358,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="188" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>2936</v>
       </c>
@@ -26414,7 +26414,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="189" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>3038</v>
       </c>
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>2827</v>
       </c>
@@ -26562,7 +26562,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>3208</v>
       </c>
@@ -26618,7 +26618,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>2949</v>
       </c>
@@ -26674,7 +26674,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="193" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>2910</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="194" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>2451</v>
       </c>
@@ -26801,7 +26801,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="195" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>2542</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>2367</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>2366</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>2546</v>
       </c>
@@ -27088,7 +27088,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="199" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>2667</v>
       </c>
@@ -27141,7 +27141,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="200" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>2385</v>
       </c>
@@ -27218,7 +27218,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="201" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>3010</v>
       </c>
@@ -27274,7 +27274,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="202" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>3039</v>
       </c>
@@ -27342,7 +27342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>2859</v>
       </c>
@@ -27422,7 +27422,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>3209</v>
       </c>
@@ -27481,7 +27481,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="205" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>2966</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="206" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>2458</v>
       </c>
@@ -27608,7 +27608,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>2570</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>2373</v>
       </c>
@@ -27732,7 +27732,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="209" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>2548</v>
       </c>
@@ -27815,7 +27815,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="210" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>3011</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="211" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>3040</v>
       </c>
@@ -27942,7 +27942,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="212" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>2864</v>
       </c>
@@ -28022,7 +28022,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>3041</v>
       </c>
@@ -28087,7 +28087,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="214" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>3210</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>2384</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>2592</v>
       </c>
@@ -28291,7 +28291,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="217" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>2495</v>
       </c>
@@ -28350,7 +28350,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="218" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>2756</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="219" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>2376</v>
       </c>
@@ -28474,7 +28474,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="220" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>2553</v>
       </c>
@@ -28557,7 +28557,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="221" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>2392</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>3042</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="223" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>3211</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="224" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>2496</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="225" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>2610</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="226" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>2792</v>
       </c>
@@ -28941,7 +28941,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="227" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>2393</v>
       </c>
@@ -29009,7 +29009,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="228" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>2586</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>3043</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="230" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>3212</v>
       </c>
@@ -29213,7 +29213,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="231" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>2533</v>
       </c>
@@ -29272,7 +29272,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>2509</v>
       </c>
@@ -29334,7 +29334,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>2616</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="234" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>2794</v>
       </c>
@@ -29452,7 +29452,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="235" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>2417</v>
       </c>
@@ -29532,7 +29532,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="236" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>2395</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="237" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>2591</v>
       </c>
@@ -29683,7 +29683,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="238" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>2427</v>
       </c>
@@ -29757,7 +29757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>2397</v>
       </c>
@@ -29822,7 +29822,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="240" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>3134</v>
       </c>
@@ -29902,7 +29902,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>3044</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>3213</v>
       </c>
@@ -30026,7 +30026,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="243" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>2513</v>
       </c>
@@ -30088,7 +30088,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>2432</v>
       </c>
@@ -30171,7 +30171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>2662</v>
       </c>
@@ -30236,7 +30236,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="246" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>2803</v>
       </c>
@@ -30292,7 +30292,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="247" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>2645</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="248" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>3167</v>
       </c>
@@ -30431,7 +30431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>2437</v>
       </c>
@@ -30508,7 +30508,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>2406</v>
       </c>
@@ -30570,7 +30570,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="251" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>3045</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="252" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>3214</v>
       </c>
@@ -30691,7 +30691,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="253" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>2531</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="254" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>2582</v>
       </c>
@@ -30797,7 +30797,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="255" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>2698</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>3157</v>
       </c>
@@ -30945,7 +30945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>3229</v>
       </c>
@@ -31001,7 +31001,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="258" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>2443</v>
       </c>
@@ -31075,7 +31075,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>2436</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="260" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>3046</v>
       </c>
@@ -31208,7 +31208,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="261" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>3215</v>
       </c>
@@ -31264,7 +31264,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="262" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>2536</v>
       </c>
@@ -31323,7 +31323,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="263" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>2467</v>
       </c>
@@ -31406,7 +31406,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>2595</v>
       </c>
@@ -31459,7 +31459,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="265" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>2701</v>
       </c>
@@ -31524,7 +31524,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="266" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>2699</v>
       </c>
@@ -31607,7 +31607,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>3158</v>
       </c>
@@ -31693,7 +31693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>2480</v>
       </c>
@@ -31773,7 +31773,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="269" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>2439</v>
       </c>
@@ -31838,7 +31838,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="270" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>3047</v>
       </c>
@@ -31903,7 +31903,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="271" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>3216</v>
       </c>
@@ -31959,7 +31959,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="272" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>2537</v>
       </c>
@@ -32018,7 +32018,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="273" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>2759</v>
       </c>
@@ -32080,7 +32080,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="274" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>3160</v>
       </c>
@@ -32166,7 +32166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>2490</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="276" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>2456</v>
       </c>
@@ -32308,7 +32308,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>3048</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="278" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>3217</v>
       </c>
@@ -32429,7 +32429,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>2630</v>
       </c>
@@ -32482,7 +32482,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="280" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>3272</v>
       </c>
@@ -32562,7 +32562,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>2468</v>
       </c>
@@ -32630,7 +32630,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="282" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>3049</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="283" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>3218</v>
       </c>
@@ -32751,7 +32751,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="284" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>2809</v>
       </c>
@@ -32813,7 +32813,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="285" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>2729</v>
       </c>
@@ -32896,7 +32896,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>3273</v>
       </c>
@@ -32976,7 +32976,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>2552</v>
       </c>
@@ -33050,7 +33050,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="288" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>3050</v>
       </c>
@@ -33115,7 +33115,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="289" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>3219</v>
       </c>
@@ -33174,7 +33174,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="290" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>2587</v>
       </c>
@@ -33236,7 +33236,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="291" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>2814</v>
       </c>
@@ -33298,7 +33298,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="292" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>2742</v>
       </c>
@@ -33381,7 +33381,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>2585</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="294" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>2472</v>
       </c>
@@ -33529,7 +33529,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="295" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>3051</v>
       </c>
@@ -33594,7 +33594,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="296" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>3220</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="297" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>2589</v>
       </c>
@@ -33709,7 +33709,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="298" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>2597</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="299" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>2593</v>
       </c>
@@ -33848,7 +33848,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="300" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>2476</v>
       </c>
@@ -33916,7 +33916,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="301" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>3052</v>
       </c>
@@ -33981,7 +33981,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="302" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>2751</v>
       </c>
@@ -34064,7 +34064,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>2478</v>
       </c>
@@ -34132,7 +34132,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>3053</v>
       </c>
@@ -34197,7 +34197,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="305" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>3222</v>
       </c>
@@ -34253,7 +34253,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="306" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>2653</v>
       </c>
@@ -34315,7 +34315,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="307" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>2824</v>
       </c>
@@ -34377,7 +34377,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="308" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>2484</v>
       </c>
@@ -34442,7 +34442,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="309" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>3054</v>
       </c>
@@ -34507,7 +34507,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="310" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>2609</v>
       </c>
@@ -34590,7 +34590,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>3223</v>
       </c>
@@ -34646,7 +34646,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="312" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>2720</v>
       </c>
@@ -34699,7 +34699,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="313" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>2854</v>
       </c>
@@ -34761,7 +34761,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="314" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>2621</v>
       </c>
@@ -34835,7 +34835,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>3055</v>
       </c>
@@ -34894,7 +34894,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="316" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>3224</v>
       </c>
@@ -34953,7 +34953,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="317" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>2767</v>
       </c>
@@ -35006,7 +35006,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="318" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>3225</v>
       </c>
@@ -35062,7 +35062,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="319" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>2770</v>
       </c>
@@ -35115,7 +35115,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="320" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>2669</v>
       </c>
@@ -35177,7 +35177,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="321" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>2623</v>
       </c>
@@ -35257,7 +35257,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="322" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>2489</v>
       </c>
@@ -35325,7 +35325,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="323" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>3056</v>
       </c>
@@ -35384,7 +35384,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="324" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>3057</v>
       </c>
@@ -35449,7 +35449,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="325" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>3226</v>
       </c>
@@ -35505,7 +35505,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="326" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>2670</v>
       </c>
@@ -35567,7 +35567,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="327" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>2823</v>
       </c>
@@ -35650,7 +35650,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>2883</v>
       </c>
@@ -35718,7 +35718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>2624</v>
       </c>
@@ -35795,7 +35795,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="330" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>2498</v>
       </c>
@@ -35860,7 +35860,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="331" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>2656</v>
       </c>
@@ -35943,7 +35943,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>3058</v>
       </c>
@@ -36011,7 +36011,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="333" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>2805</v>
       </c>
@@ -36064,7 +36064,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="334" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>2834</v>
       </c>
@@ -36147,7 +36147,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="335" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>2501</v>
       </c>
@@ -36212,7 +36212,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="336" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>3059</v>
       </c>
@@ -36277,7 +36277,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="337" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>2810</v>
       </c>
@@ -36336,7 +36336,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="338" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>2722</v>
       </c>
@@ -36395,7 +36395,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="339" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>2907</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="340" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>2677</v>
       </c>
@@ -36534,7 +36534,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="341" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>2520</v>
       </c>
@@ -36602,7 +36602,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="342" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>3060</v>
       </c>
@@ -36667,7 +36667,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="343" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>2811</v>
       </c>
@@ -36726,7 +36726,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="344" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>2844</v>
       </c>
@@ -36809,7 +36809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="345" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>2683</v>
       </c>
@@ -36886,7 +36886,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="346" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>2521</v>
       </c>
@@ -36951,7 +36951,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="347" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>3061</v>
       </c>
@@ -37016,7 +37016,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="348" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>2860</v>
       </c>
@@ -37075,7 +37075,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="349" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>2727</v>
       </c>
@@ -37137,7 +37137,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="350" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>2972</v>
       </c>
@@ -37202,7 +37202,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="351" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>2853</v>
       </c>
@@ -37285,7 +37285,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="352" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>2522</v>
       </c>
@@ -37353,7 +37353,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>2532</v>
       </c>
@@ -37415,7 +37415,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="354" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>3062</v>
       </c>
@@ -37483,7 +37483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>2892</v>
       </c>
@@ -37542,7 +37542,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="356" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>3148</v>
       </c>
@@ -37604,7 +37604,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="357" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>2856</v>
       </c>
@@ -37687,7 +37687,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="358" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>2550</v>
       </c>
@@ -37752,7 +37752,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="359" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>3063</v>
       </c>
@@ -37820,7 +37820,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="360" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>2912</v>
       </c>
@@ -37873,7 +37873,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="361" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>3151</v>
       </c>
@@ -37935,7 +37935,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="362" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>2704</v>
       </c>
@@ -38012,7 +38012,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="363" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>2551</v>
       </c>
@@ -38074,7 +38074,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="364" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>3064</v>
       </c>
@@ -38142,7 +38142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>2928</v>
       </c>
@@ -38198,7 +38198,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="366" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>2858</v>
       </c>
@@ -38281,7 +38281,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="367" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>2705</v>
       </c>
@@ -38358,7 +38358,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="368" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>2747</v>
       </c>
@@ -38441,7 +38441,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="369" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>2749</v>
       </c>
@@ -38524,7 +38524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="370" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>3065</v>
       </c>
@@ -38592,7 +38592,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="371" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>2952</v>
       </c>
@@ -38651,7 +38651,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="372" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>2715</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="373" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>2735</v>
       </c>
@@ -38805,7 +38805,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="374" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>2818</v>
       </c>
@@ -38885,7 +38885,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="375" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>2558</v>
       </c>
@@ -38944,7 +38944,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="376" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>2774</v>
       </c>
@@ -39003,7 +39003,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="377" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>3066</v>
       </c>
@@ -39068,7 +39068,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="378" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>2962</v>
       </c>
@@ -39115,7 +39115,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="379" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>2826</v>
       </c>
@@ -39198,7 +39198,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="380" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>2565</v>
       </c>
@@ -39266,7 +39266,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="381" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>2778</v>
       </c>
@@ -39328,7 +39328,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>3067</v>
       </c>
@@ -39393,7 +39393,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="383" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>3246</v>
       </c>
@@ -39449,7 +39449,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="384" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>2884</v>
       </c>
@@ -39529,7 +39529,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="385" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>2738</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="386" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>2567</v>
       </c>
@@ -39665,7 +39665,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="387" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>2783</v>
       </c>
@@ -39724,7 +39724,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="388" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>3068</v>
       </c>
@@ -39792,7 +39792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>3251</v>
       </c>
@@ -39839,7 +39839,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="390" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>2885</v>
       </c>
@@ -39922,7 +39922,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>2750</v>
       </c>
@@ -39999,7 +39999,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="392" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>2867</v>
       </c>
@@ -40082,7 +40082,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="393" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>2583</v>
       </c>
@@ -40147,7 +40147,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="394" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>2786</v>
       </c>
@@ -40206,7 +40206,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="395" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>2752</v>
       </c>
@@ -40283,7 +40283,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="396" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>2869</v>
       </c>
@@ -40366,7 +40366,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="397" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>2601</v>
       </c>
@@ -40434,7 +40434,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="398" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>3070</v>
       </c>
@@ -40502,7 +40502,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="399" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>2755</v>
       </c>
@@ -40579,7 +40579,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="400" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>2872</v>
       </c>
@@ -40662,7 +40662,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="401" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>2625</v>
       </c>
@@ -40721,7 +40721,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="402" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>2807</v>
       </c>
@@ -40780,7 +40780,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="403" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>3071</v>
       </c>
@@ -40845,7 +40845,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="404" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>2763</v>
       </c>
@@ -40922,7 +40922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="405" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>2626</v>
       </c>
@@ -40990,7 +40990,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="406" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>2852</v>
       </c>
@@ -41049,7 +41049,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="407" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>2948</v>
       </c>
@@ -41132,7 +41132,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="408" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>3072</v>
       </c>
@@ -41197,7 +41197,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="409" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>2632</v>
       </c>
@@ -41259,7 +41259,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="410" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>2955</v>
       </c>
@@ -41342,7 +41342,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="411" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>3073</v>
       </c>
@@ -41407,7 +41407,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="412" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>3227</v>
       </c>
@@ -41472,7 +41472,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="413" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>2940</v>
       </c>
@@ -41555,7 +41555,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="414" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>2861</v>
       </c>
@@ -41614,7 +41614,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="415" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>2973</v>
       </c>
@@ -41697,7 +41697,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="416" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>3005</v>
       </c>
@@ -41780,7 +41780,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="417" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>2956</v>
       </c>
@@ -41863,7 +41863,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="418" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>2647</v>
       </c>
@@ -41934,7 +41934,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="419" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>2879</v>
       </c>
@@ -41996,7 +41996,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="420" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>2842</v>
       </c>
@@ -42073,7 +42073,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="421" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>3143</v>
       </c>
@@ -42156,7 +42156,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="422" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>2863</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="423" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>2976</v>
       </c>
@@ -42313,7 +42313,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="424" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>2706</v>
       </c>
@@ -42381,7 +42381,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="425" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>2900</v>
       </c>
@@ -42443,7 +42443,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="426" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>3159</v>
       </c>
@@ -42526,7 +42526,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="427" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>2870</v>
       </c>
@@ -42603,7 +42603,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="428" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>2709</v>
       </c>
@@ -42668,7 +42668,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="429" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>3162</v>
       </c>
@@ -42751,7 +42751,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="430" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>2882</v>
       </c>
@@ -42828,7 +42828,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="431" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>2711</v>
       </c>
@@ -42893,7 +42893,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="432" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>2918</v>
       </c>
@@ -42955,7 +42955,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="433" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>3163</v>
       </c>
@@ -43038,7 +43038,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="434" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>2914</v>
       </c>
@@ -43115,7 +43115,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>2730</v>
       </c>
@@ -43174,7 +43174,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="436" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>3164</v>
       </c>
@@ -43257,7 +43257,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="437" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>3136</v>
       </c>
@@ -43340,7 +43340,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="438" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>2753</v>
       </c>
@@ -43411,7 +43411,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="439" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>2961</v>
       </c>
@@ -43470,7 +43470,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="440" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>3166</v>
       </c>
@@ -43553,7 +43553,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="441" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>3137</v>
       </c>
@@ -43636,7 +43636,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="442" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>2957</v>
       </c>
@@ -43713,7 +43713,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="443" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>2762</v>
       </c>
@@ -43784,7 +43784,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="444" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>2964</v>
       </c>
@@ -43843,7 +43843,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="445" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>3232</v>
       </c>
@@ -43923,7 +43923,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="446" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>3138</v>
       </c>
@@ -44006,7 +44006,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="447" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>2766</v>
       </c>
@@ -44071,7 +44071,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="448" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>3239</v>
       </c>
@@ -44154,7 +44154,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="449" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>2975</v>
       </c>
@@ -44231,7 +44231,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="450" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>3139</v>
       </c>
@@ -44314,7 +44314,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="451" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>2983</v>
       </c>
@@ -44376,7 +44376,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="452" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>2978</v>
       </c>
@@ -44453,7 +44453,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="453" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>3140</v>
       </c>
@@ -44536,7 +44536,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>2784</v>
       </c>
@@ -44595,7 +44595,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="455" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>2986</v>
       </c>
@@ -44654,7 +44654,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="456" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>3142</v>
       </c>
@@ -44737,7 +44737,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="457" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>2797</v>
       </c>
@@ -44805,7 +44805,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="458" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>3008</v>
       </c>
@@ -44867,7 +44867,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="459" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>2982</v>
       </c>
@@ -44944,7 +44944,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="460" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>3149</v>
       </c>
@@ -45027,7 +45027,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="461" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>3165</v>
       </c>
@@ -45110,7 +45110,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="462" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>3019</v>
       </c>
@@ -45172,7 +45172,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="463" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>3238</v>
       </c>
@@ -45255,7 +45255,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="464" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>2812</v>
       </c>
@@ -45323,7 +45323,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="465" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>3075</v>
       </c>
@@ -45382,7 +45382,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="466" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>3009</v>
       </c>
@@ -45453,7 +45453,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="467" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>3015</v>
       </c>
@@ -45530,7 +45530,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="468" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>3247</v>
       </c>
@@ -45610,7 +45610,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="469" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>2821</v>
       </c>
@@ -45669,7 +45669,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="470" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>3076</v>
       </c>
@@ -45728,7 +45728,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="471" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>3016</v>
       </c>
@@ -45805,7 +45805,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>3248</v>
       </c>
@@ -45888,7 +45888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>3077</v>
       </c>
@@ -45950,7 +45950,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="474" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>3017</v>
       </c>
@@ -46027,7 +46027,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>3078</v>
       </c>
@@ -46086,7 +46086,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="476" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>3230</v>
       </c>
@@ -46163,7 +46163,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="477" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>2839</v>
       </c>
@@ -46228,7 +46228,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="478" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>3079</v>
       </c>
@@ -46290,7 +46290,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="479" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>3231</v>
       </c>
@@ -46367,7 +46367,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="480" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>2846</v>
       </c>
@@ -46432,7 +46432,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="481" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>3080</v>
       </c>
@@ -46494,7 +46494,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="482" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>3081</v>
       </c>
@@ -46556,7 +46556,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="483" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>2868</v>
       </c>
@@ -46624,7 +46624,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="484" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>3082</v>
       </c>
@@ -46683,7 +46683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="485" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>2880</v>
       </c>
@@ -46748,7 +46748,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="486" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>3083</v>
       </c>
@@ -46810,7 +46810,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="487" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>3084</v>
       </c>
@@ -46872,7 +46872,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="488" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>3085</v>
       </c>
@@ -46931,7 +46931,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="489" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>2889</v>
       </c>
@@ -47002,7 +47002,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="490" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>3086</v>
       </c>
@@ -47064,7 +47064,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="491" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>3087</v>
       </c>
@@ -47126,7 +47126,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="492" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>2895</v>
       </c>
@@ -47194,7 +47194,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="493" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>3088</v>
       </c>
@@ -47256,7 +47256,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="494" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>2954</v>
       </c>
@@ -47324,7 +47324,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="495" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>3089</v>
       </c>
@@ -47386,7 +47386,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="496" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>3002</v>
       </c>
@@ -47454,7 +47454,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="497" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>3090</v>
       </c>
@@ -47516,7 +47516,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="498" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>3074</v>
       </c>
@@ -47581,7 +47581,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="499" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>3168</v>
       </c>
@@ -47649,7 +47649,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="500" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>3091</v>
       </c>
@@ -47708,7 +47708,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="501" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>3233</v>
       </c>
@@ -47773,7 +47773,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="502" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>3092</v>
       </c>
@@ -47832,7 +47832,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="503" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>3236</v>
       </c>
@@ -47900,7 +47900,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="504" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>3093</v>
       </c>
@@ -47959,7 +47959,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="505" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>3241</v>
       </c>
@@ -48021,7 +48021,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="506" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>3245</v>
       </c>
@@ -48086,7 +48086,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="507" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>3095</v>
       </c>
@@ -48145,7 +48145,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="508" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>3096</v>
       </c>
@@ -48207,7 +48207,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="509" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>3097</v>
       </c>
@@ -48266,7 +48266,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="510" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>3099</v>
       </c>
@@ -48325,7 +48325,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="511" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>3100</v>
       </c>
@@ -48387,7 +48387,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="512" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>3101</v>
       </c>
@@ -48446,7 +48446,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="513" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>3102</v>
       </c>
@@ -48508,7 +48508,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="514" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>3103</v>
       </c>
@@ -48567,7 +48567,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="515" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>3104</v>
       </c>
@@ -48691,7 +48691,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="517" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>3106</v>
       </c>
@@ -48753,7 +48753,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="518" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>3107</v>
       </c>
@@ -48815,7 +48815,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="519" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>3108</v>
       </c>
@@ -48877,7 +48877,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="520" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>3109</v>
       </c>
@@ -48939,7 +48939,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="521" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>3111</v>
       </c>
@@ -49001,7 +49001,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="522" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>3112</v>
       </c>
@@ -49060,7 +49060,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="523" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>3113</v>
       </c>
@@ -49122,7 +49122,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>3114</v>
       </c>
@@ -49184,7 +49184,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="525" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>3115</v>
       </c>
@@ -49246,7 +49246,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="526" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>3116</v>
       </c>
@@ -49308,7 +49308,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="527" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>3117</v>
       </c>
@@ -49367,7 +49367,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="528" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>3118</v>
       </c>
@@ -49429,7 +49429,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="529" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>3119</v>
       </c>
@@ -49491,7 +49491,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="530" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>3120</v>
       </c>
@@ -49553,7 +49553,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="531" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>3121</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="532" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>3122</v>
       </c>
@@ -49671,7 +49671,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="533" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>3123</v>
       </c>
@@ -49730,7 +49730,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="534" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>3124</v>
       </c>
@@ -49792,7 +49792,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="535" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>3125</v>
       </c>
@@ -49854,7 +49854,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="536" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>3126</v>
       </c>
@@ -49916,7 +49916,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="537" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>3127</v>
       </c>
@@ -49978,7 +49978,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="538" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>3128</v>
       </c>
@@ -50040,7 +50040,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="539" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>3129</v>
       </c>
@@ -50099,7 +50099,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="540" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>3130</v>
       </c>
@@ -50161,7 +50161,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="541" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>3131</v>
       </c>
@@ -50220,7 +50220,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="542" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>3156</v>
       </c>
@@ -50285,7 +50285,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="543" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>3240</v>
       </c>
@@ -50344,7 +50344,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="544" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>3252</v>
       </c>
@@ -50400,7 +50400,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="545" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>3254</v>
       </c>
@@ -50462,7 +50462,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="546" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>3261</v>
       </c>
@@ -50524,7 +50524,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="547" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>3262</v>
       </c>
@@ -50586,7 +50586,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="548" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>3263</v>
       </c>
@@ -50648,7 +50648,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="549" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>3264</v>
       </c>
@@ -50778,7 +50778,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="551" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>2240</v>
       </c>
@@ -50813,7 +50813,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="552" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>2290</v>
       </c>
@@ -51020,7 +51020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>2317</v>
       </c>
@@ -51097,7 +51097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>2242</v>
       </c>
@@ -51197,7 +51197,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="558" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>2238</v>
       </c>
@@ -51297,7 +51297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>2368</v>
       </c>
@@ -51365,7 +51365,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="561" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>2375</v>
       </c>
@@ -51430,7 +51430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>2312</v>
       </c>
@@ -51575,7 +51575,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="564" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>2416</v>
       </c>
@@ -51652,7 +51652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>2243</v>
       </c>
@@ -51820,7 +51820,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="568" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>2413</v>
       </c>
@@ -51965,7 +51965,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="570" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>2943</v>
       </c>
@@ -52107,7 +52107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="572" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>2244</v>
       </c>
@@ -52275,7 +52275,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="575" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>2420</v>
       </c>
@@ -52352,7 +52352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>2511</v>
       </c>
@@ -52485,7 +52485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="578" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>3022</v>
       </c>
@@ -52650,7 +52650,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="581" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>2422</v>
       </c>
@@ -52860,7 +52860,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="584" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>2433</v>
       </c>
@@ -53135,7 +53135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="588" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>2457</v>
       </c>
@@ -53277,7 +53277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>2539</v>
       </c>
@@ -53552,7 +53552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="594" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>2543</v>
       </c>
@@ -53697,7 +53697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="596" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>2676</v>
       </c>
@@ -53830,7 +53830,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="598" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>2569</v>
       </c>
@@ -54043,7 +54043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>2643</v>
       </c>
@@ -54108,7 +54108,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="602" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>2575</v>
       </c>
@@ -54185,7 +54185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>3021</v>
       </c>
@@ -54350,7 +54350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
         <v>2606</v>
       </c>
@@ -54560,7 +54560,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
         <v>2629</v>
       </c>
@@ -54702,7 +54702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="611" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
         <v>2675</v>
       </c>
@@ -54847,7 +54847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="613" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
         <v>2685</v>
       </c>
@@ -54924,7 +54924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
         <v>2820</v>
       </c>
@@ -55125,7 +55125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="617" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
         <v>2702</v>
       </c>
@@ -55391,7 +55391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="621" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
         <v>2734</v>
       </c>
@@ -55465,7 +55465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
         <v>2862</v>
       </c>
@@ -55651,7 +55651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
         <v>2736</v>
       </c>
@@ -55728,7 +55728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
         <v>2740</v>
       </c>
@@ -55805,7 +55805,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="627" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
         <v>2897</v>
       </c>
@@ -55932,7 +55932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
         <v>2761</v>
       </c>
@@ -56142,7 +56142,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="632" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
         <v>2764</v>
       </c>
@@ -56287,7 +56287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
         <v>2802</v>
       </c>
@@ -56364,7 +56364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
         <v>2804</v>
       </c>
@@ -56435,7 +56435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
         <v>2890</v>
       </c>
@@ -56515,7 +56515,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="637" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
         <v>2906</v>
       </c>
@@ -56592,7 +56592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
         <v>3020</v>
       </c>
@@ -56627,7 +56627,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="639" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
         <v>2934</v>
       </c>
@@ -56704,7 +56704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
         <v>2953</v>
       </c>
@@ -56781,7 +56781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
         <v>2959</v>
       </c>
@@ -56858,7 +56858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
         <v>2967</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
         <v>2981</v>
       </c>
@@ -57012,7 +57012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
         <v>2985</v>
       </c>
@@ -57089,7 +57089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
         <v>2994</v>
       </c>
@@ -57169,7 +57169,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="646" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
         <v>2639</v>
       </c>
@@ -57222,7 +57222,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="647" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
         <v>2572</v>
       </c>
@@ -57275,7 +57275,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="648" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
         <v>2322</v>
       </c>
@@ -57328,7 +57328,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="649" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
         <v>2555</v>
       </c>
@@ -57399,7 +57399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="650" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
         <v>2945</v>
       </c>
@@ -57476,7 +57476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="651" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
         <v>3023</v>
       </c>
@@ -57550,7 +57550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="652" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
         <v>2829</v>
       </c>
@@ -57603,7 +57603,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="653" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
         <v>2576</v>
       </c>
@@ -57659,7 +57659,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="654" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
         <v>2285</v>
       </c>
@@ -57730,7 +57730,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="655" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
         <v>2287</v>
       </c>
@@ -57801,7 +57801,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="656" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
         <v>2324</v>
       </c>
@@ -57857,7 +57857,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="657" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
         <v>3025</v>
       </c>
@@ -57931,7 +57931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="658" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
         <v>3026</v>
       </c>
@@ -58005,7 +58005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
         <v>2960</v>
       </c>
@@ -58058,7 +58058,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="660" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
         <v>2831</v>
       </c>
@@ -58111,7 +58111,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="661" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
         <v>2365</v>
       </c>
@@ -58182,7 +58182,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="662" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
         <v>2310</v>
       </c>
@@ -58253,7 +58253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
         <v>2932</v>
       </c>
@@ -58324,7 +58324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="664" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
         <v>2360</v>
       </c>
@@ -58380,7 +58380,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="665" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
         <v>3027</v>
       </c>
@@ -58454,7 +58454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
         <v>3000</v>
       </c>
@@ -58507,7 +58507,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="667" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
         <v>2909</v>
       </c>
@@ -58560,7 +58560,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="668" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
         <v>2527</v>
       </c>
@@ -58631,7 +58631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
         <v>2321</v>
       </c>
@@ -58702,7 +58702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
         <v>2410</v>
       </c>
@@ -58755,7 +58755,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="671" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
         <v>2588</v>
       </c>
@@ -58826,7 +58826,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="672" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
         <v>2325</v>
       </c>
@@ -58897,7 +58897,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="673" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
         <v>2596</v>
       </c>
@@ -58968,7 +58968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
         <v>2399</v>
       </c>
@@ -59039,7 +59039,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="675" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
         <v>2446</v>
       </c>
@@ -59095,7 +59095,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="676" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
         <v>2615</v>
       </c>
@@ -59166,7 +59166,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="677" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
         <v>2409</v>
       </c>
@@ -59237,7 +59237,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="678" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
         <v>2473</v>
       </c>
@@ -59290,7 +59290,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="679" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
         <v>2687</v>
       </c>
@@ -59361,7 +59361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
         <v>2475</v>
       </c>
@@ -59414,7 +59414,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="681" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
         <v>2488</v>
       </c>
@@ -59467,7 +59467,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="682" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
         <v>2452</v>
       </c>
@@ -59538,7 +59538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
         <v>2790</v>
       </c>
@@ -59609,7 +59609,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="684" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
         <v>2512</v>
       </c>
@@ -59662,7 +59662,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="685" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
         <v>2463</v>
       </c>
@@ -59733,7 +59733,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="686" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
         <v>2977</v>
       </c>
@@ -59804,7 +59804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
         <v>2482</v>
       </c>
@@ -59875,7 +59875,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="688" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
         <v>2996</v>
       </c>
@@ -59946,7 +59946,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="689" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
         <v>2590</v>
       </c>
@@ -60005,7 +60005,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="690" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
         <v>2579</v>
       </c>
@@ -60076,7 +60076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
         <v>3244</v>
       </c>
@@ -60147,7 +60147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
         <v>2679</v>
       </c>
@@ -60200,7 +60200,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="693" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
         <v>2580</v>
       </c>
@@ -60271,7 +60271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
         <v>2776</v>
       </c>
@@ -60324,7 +60324,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="695" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
         <v>2598</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
         <v>2888</v>
       </c>
@@ -60448,7 +60448,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="697" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
         <v>2636</v>
       </c>
@@ -60519,7 +60519,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="698" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
         <v>2924</v>
       </c>
@@ -60572,7 +60572,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="699" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
         <v>2638</v>
       </c>
@@ -60643,7 +60643,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="700" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
         <v>2649</v>
       </c>
@@ -60714,7 +60714,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="701" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
         <v>2710</v>
       </c>
@@ -60785,7 +60785,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="702" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
         <v>2837</v>
       </c>
@@ -60856,7 +60856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
         <v>2875</v>
       </c>
@@ -60927,7 +60927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
         <v>2891</v>
       </c>
@@ -60998,7 +60998,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="705" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>2922</v>
       </c>
@@ -61069,7 +61069,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="706" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>2927</v>
       </c>
@@ -61140,7 +61140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>2941</v>
       </c>
@@ -61211,7 +61211,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="708" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>3004</v>
       </c>
@@ -61282,7 +61282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>3024</v>
       </c>
@@ -61354,58 +61354,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Блок питания для H серии H_800W"/>
-        <filter val="Блок питания A-100-5 (5V, 20A)"/>
-        <filter val="Блок питания A-100СА-12 (12V, 8.3A)"/>
-        <filter val="Блок питания A-100СА-12 (12V, 8.3A), slim"/>
-        <filter val="Блок питания A-100GC-12 (12V, 8.3A)"/>
-        <filter val="Блок питания A-120GC-12 (12V, 8.3A)"/>
-        <filter val="Блок питания A-150-12 (12V, 12.5A)"/>
-        <filter val="Блок питания A-200-12 (12V, 16.7A)"/>
-        <filter val="Блок питания A-200-5 (5V, 40A)"/>
-        <filter val="Блок питания A-200AF-4,5 slim"/>
-        <filter val="Блок питания A-200AF-4.5 (4.5V, 40A)"/>
-        <filter val="Блок питания A-200AF-5 (5V, 40A)"/>
-        <filter val="Блок питания A-200NM-5D (5V, 40A)"/>
-        <filter val="Блок питания A-200W-4,5"/>
-        <filter val="Блок питания A-200W-5 (4.5V, 40A)"/>
-        <filter val="Блок питания A-250-12 (12V, 20,8A)"/>
-        <filter val="Блок питания A-25GA-12 (12V, 2A)"/>
-        <filter val="Блок питания A-300AY-4.5 slim"/>
-        <filter val="Блок питания A-300FAY-4.5 (4.5V, 60A)"/>
-        <filter val="Блок питания A-300NS-12 (12V, 25A)"/>
-        <filter val="Блок питания A-35-12 (12V, 3A)"/>
-        <filter val="Блок питания A-350NS-12 (12V, 29A)"/>
-        <filter val="Блок питания A-400AA-4,5 slim"/>
-        <filter val="Блок питания A-400AK-4.5 (4.5V, 80A)"/>
-        <filter val="Блок питания A-400AK-5 (5V, 80A)"/>
-        <filter val="Блок питания A-400GF-12 (12V, 33.3A)"/>
-        <filter val="Блок питания A-500 M-5 (5V, 80A)"/>
-        <filter val="Блок питания A-60-12 (12V, 5A)"/>
-        <filter val="Блок питания ASD-12D5N10A50E Lavalee"/>
-        <filter val="Блок питания ASD-12D5N15A75E Lavalee"/>
-        <filter val="Блок питания ASD-12D5N20A100DT Lavalee"/>
-        <filter val="Блок питания ASD-12D5N30A150DT Lavalee"/>
-        <filter val="Блок питания CV-100WH-5 (5V, 20A)"/>
-        <filter val="Блок питания CV-30 LP-12 (12V, 2.5A)"/>
-        <filter val="Блок питания CV-60EC-12 (12V, 5A), slim"/>
-        <filter val="Блок питания CYV-100-12 (12V, 8.3A)"/>
-        <filter val="Блок питания CYV-150-12 (12V, 12.5A)"/>
-        <filter val="Блок питания CYV-200-12 (12V, 16.7A)"/>
-        <filter val="Блок питания DPV-35-12 (12V, 3A)"/>
-        <filter val="Блок питания HTW-12240 (12V, 20A)"/>
-        <filter val="Блок питания HTW-12300 (12V, 25A)"/>
-        <filter val="Блок питания HTW-1235 (12V, 3A)"/>
-        <filter val="Блок питания HTW-1260 (12V, 5A)"/>
-        <filter val="Блок питания HTW-24100 (24V, 4.16A)"/>
-        <filter val="Блок питания LPS-12300"/>
-        <filter val="Блок питания NSL-12100"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -62149,7 +62098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793F0C1D-7BC2-5542-89DC-7B6D5BFE88E7}">
   <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/db/catalog.xlsx
+++ b/db/catalog.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seyanaracore/Documents/Projects/preact-module-calc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D2168A-83FF-064B-9BF6-E99137E8140A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDF6CD-F489-D14B-8649-203498B0BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export_ledexpress.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Необходимые модули" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">export_ledexpress.csv!$A$1:$AY$709</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8758" uniqueCount="4314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8228" uniqueCount="4314">
   <si>
     <t>id</t>
   </si>
@@ -15552,14 +15551,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY709"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G516" sqref="G516:G524"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15729,7 +15728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15884,7 +15883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -16039,7 +16038,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2226</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2254</v>
       </c>
@@ -16118,7 +16117,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2246</v>
       </c>
@@ -16150,7 +16149,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2259</v>
       </c>
@@ -16182,7 +16181,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2267</v>
       </c>
@@ -16217,7 +16216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2229</v>
       </c>
@@ -16249,7 +16248,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2228</v>
       </c>
@@ -16284,7 +16283,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3256</v>
       </c>
@@ -16316,7 +16315,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2247</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3257</v>
       </c>
@@ -16407,7 +16406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2414</v>
       </c>
@@ -16466,7 +16465,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2255</v>
       </c>
@@ -16501,7 +16500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2230</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2268</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2260</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2248</v>
       </c>
@@ -16650,7 +16649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2272</v>
       </c>
@@ -16685,7 +16684,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>2231</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3258</v>
       </c>
@@ -16779,7 +16778,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2602</v>
       </c>
@@ -16838,7 +16837,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>2256</v>
       </c>
@@ -16873,7 +16872,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>2261</v>
       </c>
@@ -16908,7 +16907,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>2257</v>
       </c>
@@ -16946,7 +16945,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>2232</v>
       </c>
@@ -16984,7 +16983,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>2249</v>
       </c>
@@ -17019,7 +17018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>2262</v>
       </c>
@@ -17054,7 +17053,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3259</v>
       </c>
@@ -17110,7 +17109,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>2233</v>
       </c>
@@ -17148,7 +17147,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>2258</v>
       </c>
@@ -17186,7 +17185,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3260</v>
       </c>
@@ -17242,7 +17241,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>2263</v>
       </c>
@@ -17277,7 +17276,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>2250</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>2251</v>
       </c>
@@ -17347,7 +17346,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>2264</v>
       </c>
@@ -17382,7 +17381,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>2236</v>
       </c>
@@ -17420,7 +17419,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>3144</v>
       </c>
@@ -17455,7 +17454,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>2265</v>
       </c>
@@ -17490,7 +17489,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>2252</v>
       </c>
@@ -17528,7 +17527,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>2253</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>2266</v>
       </c>
@@ -17598,7 +17597,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>2234</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>2315</v>
       </c>
@@ -17692,7 +17691,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>2286</v>
       </c>
@@ -17751,7 +17750,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>2340</v>
       </c>
@@ -17807,7 +17806,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>3029</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>2294</v>
       </c>
@@ -17931,7 +17930,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>2273</v>
       </c>
@@ -17966,7 +17965,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>2276</v>
       </c>
@@ -18049,7 +18048,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>2326</v>
       </c>
@@ -18129,7 +18128,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>2295</v>
       </c>
@@ -18182,7 +18181,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>2299</v>
       </c>
@@ -18262,7 +18261,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>2296</v>
       </c>
@@ -18315,7 +18314,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>2237</v>
       </c>
@@ -18350,7 +18349,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>3132</v>
       </c>
@@ -18409,7 +18408,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>3198</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>2300</v>
       </c>
@@ -18530,7 +18529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>3153</v>
       </c>
@@ -18610,7 +18609,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>2453</v>
       </c>
@@ -18666,7 +18665,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>2277</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>2292</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>2269</v>
       </c>
@@ -18819,7 +18818,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>2278</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>2239</v>
       </c>
@@ -18919,7 +18918,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>2318</v>
       </c>
@@ -18978,7 +18977,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>2274</v>
       </c>
@@ -19013,7 +19012,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>2235</v>
       </c>
@@ -19048,7 +19047,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>2517</v>
       </c>
@@ -19104,7 +19103,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>2289</v>
       </c>
@@ -19172,7 +19171,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>2418</v>
       </c>
@@ -19228,7 +19227,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>3030</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>2428</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>2328</v>
       </c>
@@ -19488,7 +19487,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>2301</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>2302</v>
       </c>
@@ -19615,7 +19614,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>3133</v>
       </c>
@@ -19671,7 +19670,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>3199</v>
       </c>
@@ -19727,7 +19726,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>2354</v>
       </c>
@@ -19792,7 +19791,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>2351</v>
       </c>
@@ -19869,7 +19868,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>3154</v>
       </c>
@@ -19949,7 +19948,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>2499</v>
       </c>
@@ -20005,7 +20004,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>2298</v>
       </c>
@@ -20067,7 +20066,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>2270</v>
       </c>
@@ -20102,7 +20101,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>2306</v>
       </c>
@@ -20158,7 +20157,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>2330</v>
       </c>
@@ -20220,7 +20219,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>2271</v>
       </c>
@@ -20255,7 +20254,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>2241</v>
       </c>
@@ -20290,7 +20289,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>2275</v>
       </c>
@@ -20325,7 +20324,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>2700</v>
       </c>
@@ -20384,7 +20383,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>2913</v>
       </c>
@@ -20443,7 +20442,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>2313</v>
       </c>
@@ -20508,7 +20507,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>2372</v>
       </c>
@@ -20561,7 +20560,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="96" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>3031</v>
       </c>
@@ -20626,7 +20625,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>2481</v>
       </c>
@@ -20682,7 +20681,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>2357</v>
       </c>
@@ -20821,7 +20820,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>2329</v>
       </c>
@@ -20880,7 +20879,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>2303</v>
       </c>
@@ -20954,7 +20953,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>3200</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>2359</v>
       </c>
@@ -21075,7 +21074,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>3155</v>
       </c>
@@ -21155,7 +21154,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>2577</v>
       </c>
@@ -21211,7 +21210,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>2407</v>
       </c>
@@ -21267,7 +21266,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>2744</v>
       </c>
@@ -21326,7 +21325,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -21391,7 +21390,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>2309</v>
       </c>
@@ -21474,7 +21473,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>2455</v>
       </c>
@@ -21530,7 +21529,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>3032</v>
       </c>
@@ -21595,7 +21594,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>2508</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>2524</v>
       </c>
@@ -21710,7 +21709,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>2403</v>
       </c>
@@ -21775,7 +21774,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>2612</v>
       </c>
@@ -21831,7 +21830,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>2441</v>
       </c>
@@ -21884,7 +21883,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>2323</v>
       </c>
@@ -21943,7 +21942,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>2355</v>
       </c>
@@ -22005,7 +22004,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>2845</v>
       </c>
@@ -22064,7 +22063,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>2333</v>
       </c>
@@ -22132,7 +22131,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>2528</v>
       </c>
@@ -22191,7 +22190,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>3033</v>
       </c>
@@ -22312,7 +22311,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>2382</v>
       </c>
@@ -22371,7 +22370,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>2568</v>
       </c>
@@ -22427,7 +22426,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>3202</v>
       </c>
@@ -22483,7 +22482,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>2445</v>
       </c>
@@ -22548,7 +22547,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>2642</v>
       </c>
@@ -22604,7 +22603,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="129" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>2806</v>
       </c>
@@ -22660,7 +22659,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>2335</v>
       </c>
@@ -22722,7 +22721,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="131" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>2374</v>
       </c>
@@ -22784,7 +22783,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>2942</v>
       </c>
@@ -22843,7 +22842,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="133" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>2334</v>
       </c>
@@ -22911,7 +22910,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="134" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>2336</v>
       </c>
@@ -22994,7 +22993,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>2622</v>
       </c>
@@ -23050,7 +23049,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="136" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>2401</v>
       </c>
@@ -23133,7 +23132,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>2560</v>
       </c>
@@ -23189,7 +23188,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="138" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>2344</v>
       </c>
@@ -23266,7 +23265,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>3034</v>
       </c>
@@ -23387,7 +23386,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="141" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>2725</v>
       </c>
@@ -23446,7 +23445,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="142" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>2487</v>
       </c>
@@ -23526,7 +23525,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>3203</v>
       </c>
@@ -23582,7 +23581,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>2460</v>
       </c>
@@ -23647,7 +23646,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="145" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>2714</v>
       </c>
@@ -23703,7 +23702,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="146" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>2832</v>
       </c>
@@ -23756,7 +23755,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="147" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>2461</v>
       </c>
@@ -23821,7 +23820,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="148" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>2342</v>
       </c>
@@ -23886,7 +23885,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="149" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>2339</v>
       </c>
@@ -23969,7 +23968,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="150" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>2668</v>
       </c>
@@ -24025,7 +24024,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="151" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>2352</v>
       </c>
@@ -24105,7 +24104,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="152" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>3035</v>
       </c>
@@ -24229,7 +24228,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="154" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>2768</v>
       </c>
@@ -24285,7 +24284,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="155" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>3204</v>
       </c>
@@ -24341,7 +24340,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="156" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>2535</v>
       </c>
@@ -24406,7 +24405,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="157" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>2732</v>
       </c>
@@ -24471,7 +24470,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="158" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>2757</v>
       </c>
@@ -24524,7 +24523,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="159" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>2903</v>
       </c>
@@ -24580,7 +24579,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="160" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>2369</v>
       </c>
@@ -24642,7 +24641,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>2347</v>
       </c>
@@ -24710,7 +24709,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>2462</v>
       </c>
@@ -24796,7 +24795,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>2611</v>
       </c>
@@ -24855,7 +24854,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="164" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>2425</v>
       </c>
@@ -24908,7 +24907,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="165" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>2760</v>
       </c>
@@ -24964,7 +24963,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="166" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>3036</v>
       </c>
@@ -25029,7 +25028,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="167" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>3205</v>
       </c>
@@ -25085,7 +25084,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="168" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>2793</v>
       </c>
@@ -25150,7 +25149,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="169" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>2933</v>
       </c>
@@ -25206,7 +25205,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="170" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>2390</v>
       </c>
@@ -25262,7 +25261,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>2516</v>
       </c>
@@ -25321,7 +25320,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>2349</v>
       </c>
@@ -25386,7 +25385,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>2659</v>
       </c>
@@ -25442,7 +25441,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="174" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>2377</v>
       </c>
@@ -25519,7 +25518,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>2836</v>
       </c>
@@ -25578,7 +25577,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="176" spans="1:47" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>2830</v>
       </c>
@@ -25634,7 +25633,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="177" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>3037</v>
       </c>
@@ -25699,7 +25698,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="178" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>2801</v>
       </c>
@@ -25779,7 +25778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>3206</v>
       </c>
@@ -25841,7 +25840,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="180" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>2931</v>
       </c>
@@ -25897,7 +25896,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="181" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>2850</v>
       </c>
@@ -25962,7 +25961,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>2984</v>
       </c>
@@ -26018,7 +26017,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="183" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>2429</v>
       </c>
@@ -26080,7 +26079,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="184" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>2534</v>
       </c>
@@ -26145,7 +26144,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>2523</v>
       </c>
@@ -26228,7 +26227,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>2378</v>
       </c>
@@ -26302,7 +26301,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>2843</v>
       </c>
@@ -26358,7 +26357,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="188" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>2936</v>
       </c>
@@ -26414,7 +26413,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="189" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>3038</v>
       </c>
@@ -26482,7 +26481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>2827</v>
       </c>
@@ -26562,7 +26561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>3208</v>
       </c>
@@ -26618,7 +26617,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>2949</v>
       </c>
@@ -26674,7 +26673,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="193" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>2910</v>
       </c>
@@ -26739,7 +26738,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="194" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>2451</v>
       </c>
@@ -26801,7 +26800,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="195" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>2542</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>2367</v>
       </c>
@@ -26946,7 +26945,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>2366</v>
       </c>
@@ -27011,7 +27010,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>2546</v>
       </c>
@@ -27088,7 +27087,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="199" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>2667</v>
       </c>
@@ -27141,7 +27140,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="200" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>2385</v>
       </c>
@@ -27218,7 +27217,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="201" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>3010</v>
       </c>
@@ -27274,7 +27273,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="202" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>3039</v>
       </c>
@@ -27342,7 +27341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>2859</v>
       </c>
@@ -27422,7 +27421,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>3209</v>
       </c>
@@ -27481,7 +27480,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="205" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>2966</v>
       </c>
@@ -27546,7 +27545,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="206" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>2458</v>
       </c>
@@ -27608,7 +27607,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>2570</v>
       </c>
@@ -27667,7 +27666,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>2373</v>
       </c>
@@ -27732,7 +27731,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="209" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>2548</v>
       </c>
@@ -27815,7 +27814,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="210" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>3011</v>
       </c>
@@ -27874,7 +27873,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="211" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>3040</v>
       </c>
@@ -27942,7 +27941,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="212" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>2864</v>
       </c>
@@ -28022,7 +28021,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>3041</v>
       </c>
@@ -28087,7 +28086,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="214" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>3210</v>
       </c>
@@ -28146,7 +28145,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>2384</v>
       </c>
@@ -28229,7 +28228,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>2592</v>
       </c>
@@ -28291,7 +28290,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="217" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>2495</v>
       </c>
@@ -28350,7 +28349,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="218" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>2756</v>
       </c>
@@ -28406,7 +28405,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="219" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>2376</v>
       </c>
@@ -28474,7 +28473,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="220" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>2553</v>
       </c>
@@ -28557,7 +28556,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="221" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>2392</v>
       </c>
@@ -28634,7 +28633,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>3042</v>
       </c>
@@ -28699,7 +28698,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="223" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>3211</v>
       </c>
@@ -28758,7 +28757,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="224" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>2496</v>
       </c>
@@ -28820,7 +28819,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="225" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>2610</v>
       </c>
@@ -28885,7 +28884,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="226" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>2792</v>
       </c>
@@ -28941,7 +28940,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="227" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>2393</v>
       </c>
@@ -29009,7 +29008,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="228" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>2586</v>
       </c>
@@ -29092,7 +29091,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>3043</v>
       </c>
@@ -29157,7 +29156,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="230" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>3212</v>
       </c>
@@ -29213,7 +29212,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="231" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>2533</v>
       </c>
@@ -29272,7 +29271,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>2509</v>
       </c>
@@ -29334,7 +29333,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>2616</v>
       </c>
@@ -29396,7 +29395,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="234" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>2794</v>
       </c>
@@ -29452,7 +29451,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="235" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>2417</v>
       </c>
@@ -29532,7 +29531,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="236" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>2395</v>
       </c>
@@ -29600,7 +29599,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="237" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>2591</v>
       </c>
@@ -29683,7 +29682,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="238" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>2427</v>
       </c>
@@ -29757,7 +29756,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>2397</v>
       </c>
@@ -29822,7 +29821,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="240" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>3134</v>
       </c>
@@ -29902,7 +29901,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>3044</v>
       </c>
@@ -29967,7 +29966,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>3213</v>
       </c>
@@ -30026,7 +30025,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="243" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>2513</v>
       </c>
@@ -30088,7 +30087,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>2432</v>
       </c>
@@ -30171,7 +30170,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>2662</v>
       </c>
@@ -30236,7 +30235,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="246" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>2803</v>
       </c>
@@ -30292,7 +30291,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="247" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>2645</v>
       </c>
@@ -30375,7 +30374,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="248" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>3167</v>
       </c>
@@ -30431,7 +30430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>2437</v>
       </c>
@@ -30508,7 +30507,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>2406</v>
       </c>
@@ -30570,7 +30569,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="251" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>3045</v>
       </c>
@@ -30635,7 +30634,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="252" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>3214</v>
       </c>
@@ -30691,7 +30690,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="253" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>2531</v>
       </c>
@@ -30750,7 +30749,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="254" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>2582</v>
       </c>
@@ -30797,7 +30796,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="255" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>2698</v>
       </c>
@@ -30859,7 +30858,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>3157</v>
       </c>
@@ -30945,7 +30944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>3229</v>
       </c>
@@ -31001,7 +31000,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="258" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>2443</v>
       </c>
@@ -31075,7 +31074,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>2436</v>
       </c>
@@ -31140,7 +31139,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="260" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>3046</v>
       </c>
@@ -31208,7 +31207,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="261" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>3215</v>
       </c>
@@ -31264,7 +31263,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="262" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>2536</v>
       </c>
@@ -31323,7 +31322,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="263" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>2467</v>
       </c>
@@ -31406,7 +31405,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>2595</v>
       </c>
@@ -31459,7 +31458,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="265" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>2701</v>
       </c>
@@ -31524,7 +31523,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="266" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>2699</v>
       </c>
@@ -31607,7 +31606,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>3158</v>
       </c>
@@ -31693,7 +31692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>2480</v>
       </c>
@@ -31773,7 +31772,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="269" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>2439</v>
       </c>
@@ -31838,7 +31837,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="270" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>3047</v>
       </c>
@@ -31903,7 +31902,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="271" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>3216</v>
       </c>
@@ -31959,7 +31958,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="272" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>2537</v>
       </c>
@@ -32018,7 +32017,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="273" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>2759</v>
       </c>
@@ -32080,7 +32079,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="274" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>3160</v>
       </c>
@@ -32166,7 +32165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>2490</v>
       </c>
@@ -32243,7 +32242,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="276" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>2456</v>
       </c>
@@ -32308,7 +32307,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>3048</v>
       </c>
@@ -32373,7 +32372,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="278" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>3217</v>
       </c>
@@ -32429,7 +32428,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>2630</v>
       </c>
@@ -32482,7 +32481,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="280" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>3272</v>
       </c>
@@ -32562,7 +32561,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>2468</v>
       </c>
@@ -32630,7 +32629,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="282" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>3049</v>
       </c>
@@ -32695,7 +32694,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="283" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>3218</v>
       </c>
@@ -32751,7 +32750,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="284" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>2809</v>
       </c>
@@ -32813,7 +32812,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="285" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>2729</v>
       </c>
@@ -32896,7 +32895,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>3273</v>
       </c>
@@ -32976,7 +32975,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>2552</v>
       </c>
@@ -33050,7 +33049,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="288" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>3050</v>
       </c>
@@ -33115,7 +33114,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="289" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>3219</v>
       </c>
@@ -33174,7 +33173,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="290" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>2587</v>
       </c>
@@ -33236,7 +33235,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="291" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>2814</v>
       </c>
@@ -33298,7 +33297,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="292" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>2742</v>
       </c>
@@ -33381,7 +33380,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>2585</v>
       </c>
@@ -33458,7 +33457,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="294" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>2472</v>
       </c>
@@ -33529,7 +33528,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="295" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>3051</v>
       </c>
@@ -33594,7 +33593,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="296" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>3220</v>
       </c>
@@ -33650,7 +33649,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="297" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>2589</v>
       </c>
@@ -33709,7 +33708,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="298" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>2597</v>
       </c>
@@ -33771,7 +33770,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="299" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>2593</v>
       </c>
@@ -33848,7 +33847,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="300" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>2476</v>
       </c>
@@ -33916,7 +33915,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="301" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>3052</v>
       </c>
@@ -33981,7 +33980,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="302" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>2751</v>
       </c>
@@ -34064,7 +34063,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>2478</v>
       </c>
@@ -34132,7 +34131,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>3053</v>
       </c>
@@ -34197,7 +34196,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="305" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>3222</v>
       </c>
@@ -34253,7 +34252,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="306" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>2653</v>
       </c>
@@ -34315,7 +34314,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="307" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>2824</v>
       </c>
@@ -34377,7 +34376,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="308" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>2484</v>
       </c>
@@ -34442,7 +34441,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="309" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>3054</v>
       </c>
@@ -34507,7 +34506,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="310" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>2609</v>
       </c>
@@ -34590,7 +34589,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>3223</v>
       </c>
@@ -34646,7 +34645,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="312" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>2720</v>
       </c>
@@ -34699,7 +34698,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="313" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>2854</v>
       </c>
@@ -34761,7 +34760,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="314" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>2621</v>
       </c>
@@ -34835,7 +34834,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>3055</v>
       </c>
@@ -34894,7 +34893,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="316" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>3224</v>
       </c>
@@ -34953,7 +34952,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="317" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>2767</v>
       </c>
@@ -35006,7 +35005,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="318" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>3225</v>
       </c>
@@ -35062,7 +35061,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="319" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>2770</v>
       </c>
@@ -35115,7 +35114,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="320" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>2669</v>
       </c>
@@ -35177,7 +35176,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="321" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>2623</v>
       </c>
@@ -35257,7 +35256,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="322" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>2489</v>
       </c>
@@ -35325,7 +35324,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="323" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>3056</v>
       </c>
@@ -35384,7 +35383,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="324" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>3057</v>
       </c>
@@ -35449,7 +35448,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="325" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>3226</v>
       </c>
@@ -35505,7 +35504,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="326" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>2670</v>
       </c>
@@ -35567,7 +35566,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="327" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>2823</v>
       </c>
@@ -35650,7 +35649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>2883</v>
       </c>
@@ -35718,7 +35717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>2624</v>
       </c>
@@ -35795,7 +35794,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="330" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>2498</v>
       </c>
@@ -35860,7 +35859,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="331" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>2656</v>
       </c>
@@ -35943,7 +35942,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>3058</v>
       </c>
@@ -36011,7 +36010,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="333" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>2805</v>
       </c>
@@ -36064,7 +36063,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="334" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>2834</v>
       </c>
@@ -36147,7 +36146,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="335" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>2501</v>
       </c>
@@ -36212,7 +36211,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="336" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>3059</v>
       </c>
@@ -36277,7 +36276,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="337" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>2810</v>
       </c>
@@ -36336,7 +36335,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="338" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>2722</v>
       </c>
@@ -36395,7 +36394,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="339" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>2907</v>
       </c>
@@ -36460,7 +36459,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="340" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>2677</v>
       </c>
@@ -36534,7 +36533,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="341" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>2520</v>
       </c>
@@ -36602,7 +36601,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="342" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>3060</v>
       </c>
@@ -36667,7 +36666,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="343" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>2811</v>
       </c>
@@ -36726,7 +36725,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="344" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>2844</v>
       </c>
@@ -36809,7 +36808,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="345" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>2683</v>
       </c>
@@ -36886,7 +36885,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="346" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>2521</v>
       </c>
@@ -36951,7 +36950,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="347" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>3061</v>
       </c>
@@ -37016,7 +37015,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="348" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>2860</v>
       </c>
@@ -37075,7 +37074,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="349" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>2727</v>
       </c>
@@ -37137,7 +37136,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="350" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>2972</v>
       </c>
@@ -37202,7 +37201,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="351" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>2853</v>
       </c>
@@ -37285,7 +37284,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="352" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>2522</v>
       </c>
@@ -37353,7 +37352,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>2532</v>
       </c>
@@ -37415,7 +37414,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="354" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>3062</v>
       </c>
@@ -37483,7 +37482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>2892</v>
       </c>
@@ -37542,7 +37541,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="356" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>3148</v>
       </c>
@@ -37604,7 +37603,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="357" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>2856</v>
       </c>
@@ -37687,7 +37686,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="358" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>2550</v>
       </c>
@@ -37752,7 +37751,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="359" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>3063</v>
       </c>
@@ -37820,7 +37819,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="360" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>2912</v>
       </c>
@@ -37873,7 +37872,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="361" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>3151</v>
       </c>
@@ -37935,7 +37934,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="362" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>2704</v>
       </c>
@@ -38012,7 +38011,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="363" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>2551</v>
       </c>
@@ -38074,7 +38073,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="364" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>3064</v>
       </c>
@@ -38142,7 +38141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>2928</v>
       </c>
@@ -38198,7 +38197,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="366" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>2858</v>
       </c>
@@ -38281,7 +38280,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="367" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>2705</v>
       </c>
@@ -38358,7 +38357,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="368" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>2747</v>
       </c>
@@ -38441,7 +38440,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="369" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>2749</v>
       </c>
@@ -38524,7 +38523,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="370" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>3065</v>
       </c>
@@ -38592,7 +38591,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="371" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>2952</v>
       </c>
@@ -38651,7 +38650,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="372" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>2715</v>
       </c>
@@ -38728,7 +38727,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="373" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>2735</v>
       </c>
@@ -38805,7 +38804,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="374" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>2818</v>
       </c>
@@ -38885,7 +38884,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="375" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>2558</v>
       </c>
@@ -38944,7 +38943,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="376" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>2774</v>
       </c>
@@ -39003,7 +39002,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="377" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>3066</v>
       </c>
@@ -39068,7 +39067,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="378" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>2962</v>
       </c>
@@ -39115,7 +39114,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="379" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>2826</v>
       </c>
@@ -39198,7 +39197,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="380" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>2565</v>
       </c>
@@ -39266,7 +39265,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="381" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>2778</v>
       </c>
@@ -39328,7 +39327,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>3067</v>
       </c>
@@ -39393,7 +39392,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="383" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>3246</v>
       </c>
@@ -39449,7 +39448,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="384" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>2884</v>
       </c>
@@ -39529,7 +39528,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="385" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>2738</v>
       </c>
@@ -39606,7 +39605,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="386" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>2567</v>
       </c>
@@ -39665,7 +39664,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="387" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>2783</v>
       </c>
@@ -39724,7 +39723,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="388" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>3068</v>
       </c>
@@ -39792,7 +39791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>3251</v>
       </c>
@@ -39839,7 +39838,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="390" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>2885</v>
       </c>
@@ -39922,7 +39921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>2750</v>
       </c>
@@ -39999,7 +39998,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="392" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>2867</v>
       </c>
@@ -40082,7 +40081,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="393" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>2583</v>
       </c>
@@ -40147,7 +40146,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="394" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>2786</v>
       </c>
@@ -40206,7 +40205,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="395" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>2752</v>
       </c>
@@ -40283,7 +40282,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="396" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>2869</v>
       </c>
@@ -40366,7 +40365,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="397" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>2601</v>
       </c>
@@ -40434,7 +40433,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="398" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>3070</v>
       </c>
@@ -40502,7 +40501,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="399" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>2755</v>
       </c>
@@ -40579,7 +40578,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="400" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>2872</v>
       </c>
@@ -40662,7 +40661,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="401" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>2625</v>
       </c>
@@ -40721,7 +40720,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="402" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>2807</v>
       </c>
@@ -40780,7 +40779,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="403" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>3071</v>
       </c>
@@ -40845,7 +40844,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="404" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>2763</v>
       </c>
@@ -40922,7 +40921,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="405" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>2626</v>
       </c>
@@ -40990,7 +40989,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="406" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>2852</v>
       </c>
@@ -41049,7 +41048,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="407" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>2948</v>
       </c>
@@ -41132,7 +41131,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="408" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>3072</v>
       </c>
@@ -41197,7 +41196,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="409" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>2632</v>
       </c>
@@ -41259,7 +41258,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="410" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>2955</v>
       </c>
@@ -41342,7 +41341,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="411" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>3073</v>
       </c>
@@ -41407,7 +41406,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="412" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>3227</v>
       </c>
@@ -41472,7 +41471,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="413" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>2940</v>
       </c>
@@ -41555,7 +41554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="414" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>2861</v>
       </c>
@@ -41614,7 +41613,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="415" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>2973</v>
       </c>
@@ -41697,7 +41696,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="416" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>3005</v>
       </c>
@@ -41780,7 +41779,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="417" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>2956</v>
       </c>
@@ -41863,7 +41862,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="418" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>2647</v>
       </c>
@@ -41934,7 +41933,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="419" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>2879</v>
       </c>
@@ -41996,7 +41995,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="420" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>2842</v>
       </c>
@@ -42073,7 +42072,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="421" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>3143</v>
       </c>
@@ -42156,7 +42155,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="422" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>2863</v>
       </c>
@@ -42230,7 +42229,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="423" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>2976</v>
       </c>
@@ -42313,7 +42312,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="424" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>2706</v>
       </c>
@@ -42381,7 +42380,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="425" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>2900</v>
       </c>
@@ -42443,7 +42442,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="426" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>3159</v>
       </c>
@@ -42526,7 +42525,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="427" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>2870</v>
       </c>
@@ -42603,7 +42602,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="428" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>2709</v>
       </c>
@@ -42668,7 +42667,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="429" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>3162</v>
       </c>
@@ -42751,7 +42750,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="430" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>2882</v>
       </c>
@@ -42828,7 +42827,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="431" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>2711</v>
       </c>
@@ -42893,7 +42892,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="432" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>2918</v>
       </c>
@@ -42955,7 +42954,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="433" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>3163</v>
       </c>
@@ -43038,7 +43037,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="434" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>2914</v>
       </c>
@@ -43115,7 +43114,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>2730</v>
       </c>
@@ -43174,7 +43173,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="436" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>3164</v>
       </c>
@@ -43257,7 +43256,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="437" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>3136</v>
       </c>
@@ -43340,7 +43339,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="438" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>2753</v>
       </c>
@@ -43411,7 +43410,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="439" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>2961</v>
       </c>
@@ -43470,7 +43469,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="440" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>3166</v>
       </c>
@@ -43553,7 +43552,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="441" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>3137</v>
       </c>
@@ -43636,7 +43635,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="442" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>2957</v>
       </c>
@@ -43713,7 +43712,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="443" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>2762</v>
       </c>
@@ -43784,7 +43783,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="444" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>2964</v>
       </c>
@@ -43843,7 +43842,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="445" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>3232</v>
       </c>
@@ -43923,7 +43922,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="446" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>3138</v>
       </c>
@@ -44006,7 +44005,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="447" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>2766</v>
       </c>
@@ -44071,7 +44070,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="448" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>3239</v>
       </c>
@@ -44154,7 +44153,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="449" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>2975</v>
       </c>
@@ -44231,7 +44230,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="450" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>3139</v>
       </c>
@@ -44314,7 +44313,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="451" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>2983</v>
       </c>
@@ -44376,7 +44375,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="452" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>2978</v>
       </c>
@@ -44453,7 +44452,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="453" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>3140</v>
       </c>
@@ -44536,7 +44535,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>2784</v>
       </c>
@@ -44595,7 +44594,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="455" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>2986</v>
       </c>
@@ -44654,7 +44653,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="456" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>3142</v>
       </c>
@@ -44737,7 +44736,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="457" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>2797</v>
       </c>
@@ -44805,7 +44804,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="458" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>3008</v>
       </c>
@@ -44867,7 +44866,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="459" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>2982</v>
       </c>
@@ -44944,7 +44943,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="460" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>3149</v>
       </c>
@@ -45027,7 +45026,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="461" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>3165</v>
       </c>
@@ -45110,7 +45109,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="462" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>3019</v>
       </c>
@@ -45172,7 +45171,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="463" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>3238</v>
       </c>
@@ -45255,7 +45254,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="464" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>2812</v>
       </c>
@@ -45323,7 +45322,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="465" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>3075</v>
       </c>
@@ -45382,7 +45381,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="466" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>3009</v>
       </c>
@@ -45453,7 +45452,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="467" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>3015</v>
       </c>
@@ -45530,7 +45529,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="468" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>3247</v>
       </c>
@@ -45610,7 +45609,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="469" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>2821</v>
       </c>
@@ -45669,7 +45668,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="470" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>3076</v>
       </c>
@@ -45728,7 +45727,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="471" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>3016</v>
       </c>
@@ -45805,7 +45804,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>3248</v>
       </c>
@@ -45888,7 +45887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>3077</v>
       </c>
@@ -45950,7 +45949,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="474" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>3017</v>
       </c>
@@ -46027,7 +46026,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>3078</v>
       </c>
@@ -46086,7 +46085,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="476" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>3230</v>
       </c>
@@ -46163,7 +46162,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="477" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>2839</v>
       </c>
@@ -46228,7 +46227,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="478" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>3079</v>
       </c>
@@ -46290,7 +46289,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="479" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>3231</v>
       </c>
@@ -46367,7 +46366,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="480" spans="1:48" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>2846</v>
       </c>
@@ -46432,7 +46431,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="481" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>3080</v>
       </c>
@@ -46494,7 +46493,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="482" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>3081</v>
       </c>
@@ -46556,7 +46555,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="483" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>2868</v>
       </c>
@@ -46624,7 +46623,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="484" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>3082</v>
       </c>
@@ -46683,7 +46682,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="485" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>2880</v>
       </c>
@@ -46748,7 +46747,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="486" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>3083</v>
       </c>
@@ -46810,7 +46809,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="487" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>3084</v>
       </c>
@@ -46872,7 +46871,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="488" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>3085</v>
       </c>
@@ -46931,7 +46930,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="489" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>2889</v>
       </c>
@@ -47002,7 +47001,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="490" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>3086</v>
       </c>
@@ -47064,7 +47063,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="491" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>3087</v>
       </c>
@@ -47126,7 +47125,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="492" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>2895</v>
       </c>
@@ -47194,7 +47193,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="493" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>3088</v>
       </c>
@@ -47256,7 +47255,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="494" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>2954</v>
       </c>
@@ -47324,7 +47323,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="495" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>3089</v>
       </c>
@@ -47386,7 +47385,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="496" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>3002</v>
       </c>
@@ -47454,7 +47453,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="497" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>3090</v>
       </c>
@@ -47516,7 +47515,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="498" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>3074</v>
       </c>
@@ -47581,7 +47580,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="499" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>3168</v>
       </c>
@@ -47649,7 +47648,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="500" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>3091</v>
       </c>
@@ -47708,7 +47707,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="501" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>3233</v>
       </c>
@@ -47773,7 +47772,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="502" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>3092</v>
       </c>
@@ -47832,7 +47831,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="503" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>3236</v>
       </c>
@@ -47900,7 +47899,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="504" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>3093</v>
       </c>
@@ -47959,7 +47958,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="505" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>3241</v>
       </c>
@@ -48021,7 +48020,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="506" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>3245</v>
       </c>
@@ -48086,7 +48085,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="507" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>3095</v>
       </c>
@@ -48145,7 +48144,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="508" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>3096</v>
       </c>
@@ -48207,7 +48206,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="509" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>3097</v>
       </c>
@@ -48266,7 +48265,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="510" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>3099</v>
       </c>
@@ -48325,7 +48324,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="511" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>3100</v>
       </c>
@@ -48387,7 +48386,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="512" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>3101</v>
       </c>
@@ -48446,7 +48445,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="513" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>3102</v>
       </c>
@@ -48508,7 +48507,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="514" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>3103</v>
       </c>
@@ -48567,7 +48566,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="515" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>3104</v>
       </c>
@@ -48629,7 +48628,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="516" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>3105</v>
       </c>
@@ -48691,7 +48690,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="517" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>3106</v>
       </c>
@@ -48753,7 +48752,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="518" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>3107</v>
       </c>
@@ -48815,7 +48814,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="519" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>3108</v>
       </c>
@@ -48877,7 +48876,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="520" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>3109</v>
       </c>
@@ -48939,7 +48938,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="521" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>3111</v>
       </c>
@@ -49001,7 +49000,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="522" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>3112</v>
       </c>
@@ -49060,7 +49059,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="523" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>3113</v>
       </c>
@@ -49122,7 +49121,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>3114</v>
       </c>
@@ -49184,7 +49183,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="525" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>3115</v>
       </c>
@@ -49246,7 +49245,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="526" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>3116</v>
       </c>
@@ -49308,7 +49307,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="527" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>3117</v>
       </c>
@@ -49367,7 +49366,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="528" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>3118</v>
       </c>
@@ -49429,7 +49428,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="529" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>3119</v>
       </c>
@@ -49491,7 +49490,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="530" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>3120</v>
       </c>
@@ -49553,7 +49552,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="531" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>3121</v>
       </c>
@@ -49612,7 +49611,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="532" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>3122</v>
       </c>
@@ -49671,7 +49670,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="533" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>3123</v>
       </c>
@@ -49730,7 +49729,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="534" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>3124</v>
       </c>
@@ -49792,7 +49791,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="535" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>3125</v>
       </c>
@@ -49854,7 +49853,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="536" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>3126</v>
       </c>
@@ -49916,7 +49915,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="537" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>3127</v>
       </c>
@@ -49978,7 +49977,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="538" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>3128</v>
       </c>
@@ -50040,7 +50039,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="539" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>3129</v>
       </c>
@@ -50099,7 +50098,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="540" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>3130</v>
       </c>
@@ -50161,7 +50160,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="541" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>3131</v>
       </c>
@@ -50220,7 +50219,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="542" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>3156</v>
       </c>
@@ -50285,7 +50284,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="543" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>3240</v>
       </c>
@@ -50344,7 +50343,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="544" spans="1:30" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>3252</v>
       </c>
@@ -50400,7 +50399,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="545" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>3254</v>
       </c>
@@ -50462,7 +50461,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="546" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>3261</v>
       </c>
@@ -50524,7 +50523,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="547" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>3262</v>
       </c>
@@ -50586,7 +50585,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="548" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>3263</v>
       </c>
@@ -50648,7 +50647,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="549" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>3264</v>
       </c>
@@ -50710,7 +50709,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="550" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>2631</v>
       </c>
@@ -50778,7 +50777,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="551" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>2240</v>
       </c>
@@ -50813,7 +50812,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="552" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>2290</v>
       </c>
@@ -50890,7 +50889,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="553" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>2505</v>
       </c>
@@ -50955,7 +50954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>2307</v>
       </c>
@@ -51020,7 +51019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>2317</v>
       </c>
@@ -51097,7 +51096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>2242</v>
       </c>
@@ -51132,7 +51131,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="557" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>2343</v>
       </c>
@@ -51197,7 +51196,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="558" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>2238</v>
       </c>
@@ -51232,7 +51231,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="559" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>3265</v>
       </c>
@@ -51297,7 +51296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>2368</v>
       </c>
@@ -51365,7 +51364,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="561" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>2375</v>
       </c>
@@ -51430,7 +51429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>2312</v>
       </c>
@@ -51507,7 +51506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>2394</v>
       </c>
@@ -51575,7 +51574,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="564" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>2416</v>
       </c>
@@ -51652,7 +51651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>2243</v>
       </c>
@@ -51687,7 +51686,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="566" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>3266</v>
       </c>
@@ -51752,7 +51751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="567" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>2388</v>
       </c>
@@ -51820,7 +51819,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="568" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>2413</v>
       </c>
@@ -51897,7 +51896,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="569" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>2510</v>
       </c>
@@ -51965,7 +51964,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="570" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>2943</v>
       </c>
@@ -52042,7 +52041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>2525</v>
       </c>
@@ -52107,7 +52106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="572" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>2244</v>
       </c>
@@ -52142,7 +52141,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="573" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>3267</v>
       </c>
@@ -52207,7 +52206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>2411</v>
       </c>
@@ -52275,7 +52274,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="575" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>2420</v>
       </c>
@@ -52352,7 +52351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>2511</v>
       </c>
@@ -52417,7 +52416,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="577" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>2529</v>
       </c>
@@ -52485,7 +52484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="578" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>3022</v>
       </c>
@@ -52520,7 +52519,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="579" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>3268</v>
       </c>
@@ -52585,7 +52584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="580" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>2442</v>
       </c>
@@ -52650,7 +52649,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="581" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>2422</v>
       </c>
@@ -52727,7 +52726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>2566</v>
       </c>
@@ -52792,7 +52791,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="583" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>2562</v>
       </c>
@@ -52860,7 +52859,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="584" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>2433</v>
       </c>
@@ -52937,7 +52936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>2604</v>
       </c>
@@ -53005,7 +53004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="586" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>2515</v>
       </c>
@@ -53070,7 +53069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>2563</v>
       </c>
@@ -53135,7 +53134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="588" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>2457</v>
       </c>
@@ -53212,7 +53211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>2607</v>
       </c>
@@ -53277,7 +53276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>2539</v>
       </c>
@@ -53354,7 +53353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>2813</v>
       </c>
@@ -53419,7 +53418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="592" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>2627</v>
       </c>
@@ -53487,7 +53486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>2618</v>
       </c>
@@ -53552,7 +53551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="594" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>2543</v>
       </c>
@@ -53629,7 +53628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>2841</v>
       </c>
@@ -53697,7 +53696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="596" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>2676</v>
       </c>
@@ -53762,7 +53761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>2620</v>
       </c>
@@ -53830,7 +53829,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="598" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>2569</v>
       </c>
@@ -53907,7 +53906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>2851</v>
       </c>
@@ -53975,7 +53974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="600" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>2680</v>
       </c>
@@ -54043,7 +54042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>2643</v>
       </c>
@@ -54108,7 +54107,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="602" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>2575</v>
       </c>
@@ -54185,7 +54184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>3021</v>
       </c>
@@ -54220,7 +54219,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="604" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
         <v>2681</v>
       </c>
@@ -54285,7 +54284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A605" s="1">
         <v>2719</v>
       </c>
@@ -54350,7 +54349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
         <v>2606</v>
       </c>
@@ -54427,7 +54426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
         <v>2898</v>
       </c>
@@ -54492,7 +54491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="608" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A608" s="1">
         <v>2690</v>
       </c>
@@ -54560,7 +54559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
         <v>2629</v>
       </c>
@@ -54637,7 +54636,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="610" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
         <v>2904</v>
       </c>
@@ -54702,7 +54701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="611" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
         <v>2675</v>
       </c>
@@ -54782,7 +54781,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="612" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
         <v>2908</v>
       </c>
@@ -54847,7 +54846,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="613" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
         <v>2685</v>
       </c>
@@ -54924,7 +54923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
         <v>2820</v>
       </c>
@@ -54989,7 +54988,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="615" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A615" s="1">
         <v>2785</v>
       </c>
@@ -55057,7 +55056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
         <v>2946</v>
       </c>
@@ -55125,7 +55124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="617" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
         <v>2702</v>
       </c>
@@ -55202,7 +55201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
         <v>2835</v>
       </c>
@@ -55267,7 +55266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A619" s="1">
         <v>2799</v>
       </c>
@@ -55332,7 +55331,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="620" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A620" s="1">
         <v>3269</v>
       </c>
@@ -55391,7 +55390,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="621" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
         <v>2734</v>
       </c>
@@ -55465,7 +55464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
         <v>2862</v>
       </c>
@@ -55530,7 +55529,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="623" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
         <v>2874</v>
       </c>
@@ -55595,7 +55594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A624" s="1">
         <v>3271</v>
       </c>
@@ -55651,7 +55650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
         <v>2736</v>
       </c>
@@ -55728,7 +55727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
         <v>2740</v>
       </c>
@@ -55805,7 +55804,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="627" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
         <v>2897</v>
       </c>
@@ -55870,7 +55869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628" s="1">
         <v>3161</v>
       </c>
@@ -55932,7 +55931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
         <v>2761</v>
       </c>
@@ -56009,7 +56008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
         <v>2995</v>
       </c>
@@ -56077,7 +56076,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="631" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631" s="1">
         <v>3270</v>
       </c>
@@ -56142,7 +56141,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="632" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
         <v>2764</v>
       </c>
@@ -56219,7 +56218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633" s="1">
         <v>2998</v>
       </c>
@@ -56287,7 +56286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
         <v>2802</v>
       </c>
@@ -56364,7 +56363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
         <v>2804</v>
       </c>
@@ -56435,7 +56434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
         <v>2890</v>
       </c>
@@ -56515,7 +56514,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="637" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
         <v>2906</v>
       </c>
@@ -56592,7 +56591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
         <v>3020</v>
       </c>
@@ -56627,7 +56626,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="639" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
         <v>2934</v>
       </c>
@@ -56704,7 +56703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:50" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
         <v>2953</v>
       </c>
@@ -56781,7 +56780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
         <v>2959</v>
       </c>
@@ -56858,7 +56857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
         <v>2967</v>
       </c>
@@ -56935,7 +56934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
         <v>2981</v>
       </c>
@@ -57012,7 +57011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
         <v>2985</v>
       </c>
@@ -57089,7 +57088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
         <v>2994</v>
       </c>
@@ -57169,7 +57168,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="646" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
         <v>2639</v>
       </c>
@@ -57222,7 +57221,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="647" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
         <v>2572</v>
       </c>
@@ -57275,7 +57274,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="648" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
         <v>2322</v>
       </c>
@@ -57328,7 +57327,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="649" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
         <v>2555</v>
       </c>
@@ -57399,7 +57398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="650" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
         <v>2945</v>
       </c>
@@ -57476,7 +57475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="651" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
         <v>3023</v>
       </c>
@@ -57550,7 +57549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="652" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
         <v>2829</v>
       </c>
@@ -57603,7 +57602,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="653" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
         <v>2576</v>
       </c>
@@ -57659,7 +57658,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="654" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
         <v>2285</v>
       </c>
@@ -57730,7 +57729,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="655" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
         <v>2287</v>
       </c>
@@ -57801,7 +57800,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="656" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
         <v>2324</v>
       </c>
@@ -57857,7 +57856,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="657" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
         <v>3025</v>
       </c>
@@ -57931,7 +57930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="658" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
         <v>3026</v>
       </c>
@@ -58005,7 +58004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
         <v>2960</v>
       </c>
@@ -58058,7 +58057,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="660" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
         <v>2831</v>
       </c>
@@ -58111,7 +58110,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="661" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
         <v>2365</v>
       </c>
@@ -58182,7 +58181,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="662" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
         <v>2310</v>
       </c>
@@ -58253,7 +58252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
         <v>2932</v>
       </c>
@@ -58324,7 +58323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="664" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
         <v>2360</v>
       </c>
@@ -58380,7 +58379,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="665" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
         <v>3027</v>
       </c>
@@ -58454,7 +58453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
         <v>3000</v>
       </c>
@@ -58507,7 +58506,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="667" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
         <v>2909</v>
       </c>
@@ -58560,7 +58559,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="668" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
         <v>2527</v>
       </c>
@@ -58631,7 +58630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
         <v>2321</v>
       </c>
@@ -58702,7 +58701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
         <v>2410</v>
       </c>
@@ -58755,7 +58754,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="671" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
         <v>2588</v>
       </c>
@@ -58826,7 +58825,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="672" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
         <v>2325</v>
       </c>
@@ -58897,7 +58896,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="673" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
         <v>2596</v>
       </c>
@@ -58968,7 +58967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
         <v>2399</v>
       </c>
@@ -59039,7 +59038,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="675" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
         <v>2446</v>
       </c>
@@ -59095,7 +59094,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="676" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
         <v>2615</v>
       </c>
@@ -59166,7 +59165,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="677" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
         <v>2409</v>
       </c>
@@ -59237,7 +59236,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="678" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
         <v>2473</v>
       </c>
@@ -59290,7 +59289,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="679" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
         <v>2687</v>
       </c>
@@ -59361,7 +59360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
         <v>2475</v>
       </c>
@@ -59414,7 +59413,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="681" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
         <v>2488</v>
       </c>
@@ -59467,7 +59466,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="682" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
         <v>2452</v>
       </c>
@@ -59538,7 +59537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
         <v>2790</v>
       </c>
@@ -59609,7 +59608,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="684" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
         <v>2512</v>
       </c>
@@ -59662,7 +59661,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="685" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
         <v>2463</v>
       </c>
@@ -59733,7 +59732,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="686" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
         <v>2977</v>
       </c>
@@ -59804,7 +59803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
         <v>2482</v>
       </c>
@@ -59875,7 +59874,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="688" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
         <v>2996</v>
       </c>
@@ -59946,7 +59945,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="689" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
         <v>2590</v>
       </c>
@@ -60005,7 +60004,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="690" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
         <v>2579</v>
       </c>
@@ -60076,7 +60075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
         <v>3244</v>
       </c>
@@ -60147,7 +60146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
         <v>2679</v>
       </c>
@@ -60200,7 +60199,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="693" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
         <v>2580</v>
       </c>
@@ -60271,7 +60270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
         <v>2776</v>
       </c>
@@ -60324,7 +60323,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="695" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
         <v>2598</v>
       </c>
@@ -60395,7 +60394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
         <v>2888</v>
       </c>
@@ -60448,7 +60447,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="697" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
         <v>2636</v>
       </c>
@@ -60519,7 +60518,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="698" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
         <v>2924</v>
       </c>
@@ -60572,7 +60571,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="699" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
         <v>2638</v>
       </c>
@@ -60643,7 +60642,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="700" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
         <v>2649</v>
       </c>
@@ -60714,7 +60713,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="701" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
         <v>2710</v>
       </c>
@@ -60785,7 +60784,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="702" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
         <v>2837</v>
       </c>
@@ -60856,7 +60855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
         <v>2875</v>
       </c>
@@ -60927,7 +60926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
         <v>2891</v>
       </c>
@@ -60998,7 +60997,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="705" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>2922</v>
       </c>
@@ -61069,7 +61068,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="706" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>2927</v>
       </c>
@@ -61140,7 +61139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>2941</v>
       </c>
@@ -61211,7 +61210,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="708" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>3004</v>
       </c>
@@ -61282,7 +61281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>3024</v>
       </c>
@@ -61354,7 +61353,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="307"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -61363,8 +61368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A950931A-D895-C54F-A181-39C187FBD8AC}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -62092,3197 +62097,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793F0C1D-7BC2-5542-89DC-7B6D5BFE88E7}">
-  <dimension ref="A1:AY47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>3105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3227</v>
-      </c>
-      <c r="C2">
-        <v>295</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2250</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3228</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3227</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3227</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3229</v>
-      </c>
-      <c r="S2" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2">
-        <v>20182</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>3230</v>
-      </c>
-      <c r="X2" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3231</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>3232</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>3233</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2631</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3448</v>
-      </c>
-      <c r="C3">
-        <v>315</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2270</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3449</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3448</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3448</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3450</v>
-      </c>
-      <c r="S3" t="s">
-        <v>135</v>
-      </c>
-      <c r="T3">
-        <v>1807</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>216</v>
-      </c>
-      <c r="W3" t="s">
-        <v>3451</v>
-      </c>
-      <c r="X3" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3452</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>3453</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>3454</v>
-      </c>
-      <c r="AF3">
-        <v>100</v>
-      </c>
-      <c r="AG3">
-        <v>24</v>
-      </c>
-      <c r="AW3">
-        <v>45507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2505</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3463</v>
-      </c>
-      <c r="C4">
-        <v>316</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2271</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3464</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3463</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3463</v>
-      </c>
-      <c r="R4" t="s">
-        <v>3465</v>
-      </c>
-      <c r="S4" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4">
-        <v>2391</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>3466</v>
-      </c>
-      <c r="X4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>3467</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>3468</v>
-      </c>
-      <c r="AF4">
-        <v>100</v>
-      </c>
-      <c r="AG4">
-        <v>5</v>
-      </c>
-      <c r="AW4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2307</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3469</v>
-      </c>
-      <c r="C5">
-        <v>319</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2274</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3470</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3469</v>
-      </c>
-      <c r="I5" t="s">
-        <v>3469</v>
-      </c>
-      <c r="R5" t="s">
-        <v>3471</v>
-      </c>
-      <c r="S5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T5">
-        <v>1627</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>247</v>
-      </c>
-      <c r="W5" t="s">
-        <v>3472</v>
-      </c>
-      <c r="X5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>3473</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>3474</v>
-      </c>
-      <c r="AF5">
-        <v>350</v>
-      </c>
-      <c r="AG5">
-        <v>12</v>
-      </c>
-      <c r="AW5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2343</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3483</v>
-      </c>
-      <c r="C6">
-        <v>318</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2273</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3484</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3483</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3483</v>
-      </c>
-      <c r="R6" t="s">
-        <v>3485</v>
-      </c>
-      <c r="S6" t="s">
-        <v>135</v>
-      </c>
-      <c r="T6">
-        <v>1637</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>960</v>
-      </c>
-      <c r="W6" t="s">
-        <v>3486</v>
-      </c>
-      <c r="X6" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>3487</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>3488</v>
-      </c>
-      <c r="AF6">
-        <v>300</v>
-      </c>
-      <c r="AG6">
-        <v>45416</v>
-      </c>
-      <c r="AW6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>3265</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3490</v>
-      </c>
-      <c r="C7">
-        <v>320</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2275</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3491</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3490</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3490</v>
-      </c>
-      <c r="R7" t="s">
-        <v>3492</v>
-      </c>
-      <c r="S7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7">
-        <v>765</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>196</v>
-      </c>
-      <c r="W7" t="s">
-        <v>3493</v>
-      </c>
-      <c r="X7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>3494</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>3495</v>
-      </c>
-      <c r="AF7">
-        <v>50</v>
-      </c>
-      <c r="AG7">
-        <v>5</v>
-      </c>
-      <c r="AW7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2394</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3514</v>
-      </c>
-      <c r="C8">
-        <v>319</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2274</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3515</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3514</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3514</v>
-      </c>
-      <c r="R8" t="s">
-        <v>3516</v>
-      </c>
-      <c r="S8" t="s">
-        <v>135</v>
-      </c>
-      <c r="T8">
-        <v>1541</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>249</v>
-      </c>
-      <c r="W8" t="s">
-        <v>3517</v>
-      </c>
-      <c r="X8" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>3518</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>3519</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>3520</v>
-      </c>
-      <c r="AF8">
-        <v>250</v>
-      </c>
-      <c r="AG8">
-        <v>12</v>
-      </c>
-      <c r="AW8">
-        <v>45524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>3266</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3529</v>
-      </c>
-      <c r="C9">
-        <v>320</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2275</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3530</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3529</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3529</v>
-      </c>
-      <c r="R9" t="s">
-        <v>3531</v>
-      </c>
-      <c r="S9" t="s">
-        <v>135</v>
-      </c>
-      <c r="T9">
-        <v>1116</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>290</v>
-      </c>
-      <c r="W9" t="s">
-        <v>3532</v>
-      </c>
-      <c r="X9" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>3533</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>3534</v>
-      </c>
-      <c r="AF9">
-        <v>75</v>
-      </c>
-      <c r="AG9">
-        <v>5</v>
-      </c>
-      <c r="AW9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>2388</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3535</v>
-      </c>
-      <c r="C10">
-        <v>314</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2269</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3536</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3535</v>
-      </c>
-      <c r="I10" t="s">
-        <v>3535</v>
-      </c>
-      <c r="R10" t="s">
-        <v>3537</v>
-      </c>
-      <c r="S10" t="s">
-        <v>135</v>
-      </c>
-      <c r="T10">
-        <v>1627</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>128</v>
-      </c>
-      <c r="W10" t="s">
-        <v>3538</v>
-      </c>
-      <c r="X10" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>3539</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>3540</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>3541</v>
-      </c>
-      <c r="AF10">
-        <v>100</v>
-      </c>
-      <c r="AG10">
-        <v>12</v>
-      </c>
-      <c r="AW10">
-        <v>45419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2510</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3549</v>
-      </c>
-      <c r="C11">
-        <v>319</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2274</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3550</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3549</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3549</v>
-      </c>
-      <c r="R11" t="s">
-        <v>3551</v>
-      </c>
-      <c r="S11" t="s">
-        <v>135</v>
-      </c>
-      <c r="T11">
-        <v>1116</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>334</v>
-      </c>
-      <c r="W11" t="s">
-        <v>3552</v>
-      </c>
-      <c r="X11" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>3553</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>3554</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>3555</v>
-      </c>
-      <c r="AF11">
-        <v>100</v>
-      </c>
-      <c r="AG11">
-        <v>12</v>
-      </c>
-      <c r="AW11">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2525</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3562</v>
-      </c>
-      <c r="C12">
-        <v>318</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2273</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3563</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3562</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3562</v>
-      </c>
-      <c r="R12" t="s">
-        <v>3564</v>
-      </c>
-      <c r="S12" t="s">
-        <v>135</v>
-      </c>
-      <c r="T12">
-        <v>1913</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>3565</v>
-      </c>
-      <c r="X12" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>3566</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>3567</v>
-      </c>
-      <c r="AF12">
-        <v>400</v>
-      </c>
-      <c r="AG12">
-        <v>45416</v>
-      </c>
-      <c r="AW12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>3267</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3570</v>
-      </c>
-      <c r="C13">
-        <v>320</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2275</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3571</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3570</v>
-      </c>
-      <c r="I13" t="s">
-        <v>3570</v>
-      </c>
-      <c r="R13" t="s">
-        <v>3572</v>
-      </c>
-      <c r="S13" t="s">
-        <v>135</v>
-      </c>
-      <c r="T13">
-        <v>1361</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>168</v>
-      </c>
-      <c r="W13" t="s">
-        <v>3573</v>
-      </c>
-      <c r="X13" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>3574</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>3575</v>
-      </c>
-      <c r="AF13">
-        <v>100</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AW13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2411</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3576</v>
-      </c>
-      <c r="C14">
-        <v>314</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2269</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3577</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3576</v>
-      </c>
-      <c r="I14" t="s">
-        <v>3576</v>
-      </c>
-      <c r="R14" t="s">
-        <v>3578</v>
-      </c>
-      <c r="S14" t="s">
-        <v>135</v>
-      </c>
-      <c r="T14">
-        <v>2073</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>434</v>
-      </c>
-      <c r="W14" t="s">
-        <v>3579</v>
-      </c>
-      <c r="X14" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>3580</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>3581</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>3582</v>
-      </c>
-      <c r="AF14">
-        <v>150</v>
-      </c>
-      <c r="AG14">
-        <v>12</v>
-      </c>
-      <c r="AW14">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2529</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3596</v>
-      </c>
-      <c r="C15">
-        <v>318</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2273</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3597</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3596</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3596</v>
-      </c>
-      <c r="R15" t="s">
-        <v>3598</v>
-      </c>
-      <c r="S15" t="s">
-        <v>135</v>
-      </c>
-      <c r="T15">
-        <v>1913</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>141</v>
-      </c>
-      <c r="W15" t="s">
-        <v>3599</v>
-      </c>
-      <c r="X15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>3600</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>3601</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>3602</v>
-      </c>
-      <c r="AF15">
-        <v>400</v>
-      </c>
-      <c r="AG15">
-        <v>5</v>
-      </c>
-      <c r="AW15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>3268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3604</v>
-      </c>
-      <c r="C16">
-        <v>320</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2275</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3605</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3604</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3604</v>
-      </c>
-      <c r="R16" t="s">
-        <v>3606</v>
-      </c>
-      <c r="S16" t="s">
-        <v>135</v>
-      </c>
-      <c r="T16">
-        <v>1817</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>100</v>
-      </c>
-      <c r="W16" t="s">
-        <v>3607</v>
-      </c>
-      <c r="X16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>3608</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>3609</v>
-      </c>
-      <c r="AF16">
-        <v>150</v>
-      </c>
-      <c r="AG16">
-        <v>5</v>
-      </c>
-      <c r="AW16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2442</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3610</v>
-      </c>
-      <c r="C17">
-        <v>314</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>2269</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3611</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3610</v>
-      </c>
-      <c r="I17" t="s">
-        <v>3610</v>
-      </c>
-      <c r="R17" t="s">
-        <v>3612</v>
-      </c>
-      <c r="S17" t="s">
-        <v>135</v>
-      </c>
-      <c r="T17">
-        <v>915</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>142</v>
-      </c>
-      <c r="W17" t="s">
-        <v>3613</v>
-      </c>
-      <c r="X17" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>3614</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>3615</v>
-      </c>
-      <c r="AF17">
-        <v>30</v>
-      </c>
-      <c r="AG17">
-        <v>12</v>
-      </c>
-      <c r="AW17">
-        <v>45414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2566</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3621</v>
-      </c>
-      <c r="C18">
-        <v>318</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>2273</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3622</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3621</v>
-      </c>
-      <c r="I18" t="s">
-        <v>3621</v>
-      </c>
-      <c r="R18" t="s">
-        <v>3623</v>
-      </c>
-      <c r="S18" t="s">
-        <v>135</v>
-      </c>
-      <c r="T18">
-        <v>1913</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>-8</v>
-      </c>
-      <c r="W18" t="s">
-        <v>3565</v>
-      </c>
-      <c r="X18" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>3624</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>3625</v>
-      </c>
-      <c r="AF18">
-        <v>400</v>
-      </c>
-      <c r="AG18">
-        <v>45416</v>
-      </c>
-      <c r="AW18">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2562</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3626</v>
-      </c>
-      <c r="C19">
-        <v>319</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>2274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3627</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3626</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3626</v>
-      </c>
-      <c r="R19" t="s">
-        <v>3628</v>
-      </c>
-      <c r="S19" t="s">
-        <v>135</v>
-      </c>
-      <c r="T19">
-        <v>1127</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>43</v>
-      </c>
-      <c r="W19" t="s">
-        <v>3629</v>
-      </c>
-      <c r="X19" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>3630</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>3631</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>3632</v>
-      </c>
-      <c r="AF19">
-        <v>150</v>
-      </c>
-      <c r="AG19">
-        <v>12</v>
-      </c>
-      <c r="AW19">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2604</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3638</v>
-      </c>
-      <c r="C20">
-        <v>318</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2273</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3639</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3638</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3638</v>
-      </c>
-      <c r="R20" t="s">
-        <v>3640</v>
-      </c>
-      <c r="S20" t="s">
-        <v>135</v>
-      </c>
-      <c r="T20">
-        <v>745</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>3641</v>
-      </c>
-      <c r="X20" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>3642</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>3643</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>3644</v>
-      </c>
-      <c r="AF20">
-        <v>200</v>
-      </c>
-      <c r="AG20">
-        <v>5</v>
-      </c>
-      <c r="AW20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2515</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3645</v>
-      </c>
-      <c r="C21">
-        <v>314</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>2269</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3646</v>
-      </c>
-      <c r="H21" t="s">
-        <v>3645</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3645</v>
-      </c>
-      <c r="R21" t="s">
-        <v>3647</v>
-      </c>
-      <c r="S21" t="s">
-        <v>135</v>
-      </c>
-      <c r="T21">
-        <v>840</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s">
-        <v>3648</v>
-      </c>
-      <c r="X21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>3649</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>3650</v>
-      </c>
-      <c r="AF21">
-        <v>35</v>
-      </c>
-      <c r="AG21">
-        <v>12</v>
-      </c>
-      <c r="AW21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2563</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3651</v>
-      </c>
-      <c r="C22">
-        <v>319</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2274</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3652</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3651</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3651</v>
-      </c>
-      <c r="R22" t="s">
-        <v>3653</v>
-      </c>
-      <c r="S22" t="s">
-        <v>135</v>
-      </c>
-      <c r="T22">
-        <v>1711</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>67</v>
-      </c>
-      <c r="W22" t="s">
-        <v>3654</v>
-      </c>
-      <c r="X22" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>3655</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>3656</v>
-      </c>
-      <c r="AF22">
-        <v>400</v>
-      </c>
-      <c r="AG22">
-        <v>12</v>
-      </c>
-      <c r="AW22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2607</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3662</v>
-      </c>
-      <c r="C23">
-        <v>319</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>2274</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3663</v>
-      </c>
-      <c r="H23" t="s">
-        <v>3662</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3662</v>
-      </c>
-      <c r="R23" t="s">
-        <v>3664</v>
-      </c>
-      <c r="S23" t="s">
-        <v>135</v>
-      </c>
-      <c r="T23">
-        <v>627</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>203</v>
-      </c>
-      <c r="W23" t="s">
-        <v>3665</v>
-      </c>
-      <c r="X23" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>3666</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>3667</v>
-      </c>
-      <c r="AF23">
-        <v>35</v>
-      </c>
-      <c r="AG23">
-        <v>12</v>
-      </c>
-      <c r="AW23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>2813</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3673</v>
-      </c>
-      <c r="C24">
-        <v>318</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>2273</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3674</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3673</v>
-      </c>
-      <c r="I24" t="s">
-        <v>3673</v>
-      </c>
-      <c r="R24" t="s">
-        <v>3675</v>
-      </c>
-      <c r="S24" t="s">
-        <v>135</v>
-      </c>
-      <c r="T24">
-        <v>957</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>3676</v>
-      </c>
-      <c r="X24" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>3677</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>3678</v>
-      </c>
-      <c r="AF24">
-        <v>200</v>
-      </c>
-      <c r="AG24">
-        <v>45416</v>
-      </c>
-      <c r="AW24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>2627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3679</v>
-      </c>
-      <c r="C25">
-        <v>314</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>2269</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3680</v>
-      </c>
-      <c r="H25" t="s">
-        <v>3679</v>
-      </c>
-      <c r="I25" t="s">
-        <v>3679</v>
-      </c>
-      <c r="R25" t="s">
-        <v>3681</v>
-      </c>
-      <c r="S25" t="s">
-        <v>135</v>
-      </c>
-      <c r="T25">
-        <v>1339</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>60</v>
-      </c>
-      <c r="W25" t="s">
-        <v>3682</v>
-      </c>
-      <c r="X25" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>3683</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>3684</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>3685</v>
-      </c>
-      <c r="AF25">
-        <v>60</v>
-      </c>
-      <c r="AG25">
-        <v>12</v>
-      </c>
-      <c r="AW25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>2618</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3686</v>
-      </c>
-      <c r="C26">
-        <v>319</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2274</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3687</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3686</v>
-      </c>
-      <c r="I26" t="s">
-        <v>3686</v>
-      </c>
-      <c r="R26" t="s">
-        <v>3688</v>
-      </c>
-      <c r="S26" t="s">
-        <v>135</v>
-      </c>
-      <c r="T26">
-        <v>1753</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>230</v>
-      </c>
-      <c r="W26" t="s">
-        <v>3689</v>
-      </c>
-      <c r="X26" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>3690</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>3691</v>
-      </c>
-      <c r="AF26">
-        <v>350</v>
-      </c>
-      <c r="AG26">
-        <v>12</v>
-      </c>
-      <c r="AW26">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>2841</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3697</v>
-      </c>
-      <c r="C27">
-        <v>318</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>2273</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3698</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3697</v>
-      </c>
-      <c r="I27" t="s">
-        <v>3697</v>
-      </c>
-      <c r="R27" t="s">
-        <v>3699</v>
-      </c>
-      <c r="S27" t="s">
-        <v>135</v>
-      </c>
-      <c r="T27">
-        <v>957</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>1119</v>
-      </c>
-      <c r="W27" t="s">
-        <v>3700</v>
-      </c>
-      <c r="X27" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>3701</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>3702</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>3703</v>
-      </c>
-      <c r="AF27">
-        <v>200</v>
-      </c>
-      <c r="AG27">
-        <v>5</v>
-      </c>
-      <c r="AW27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <v>2620</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3709</v>
-      </c>
-      <c r="C28">
-        <v>319</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>2274</v>
-      </c>
-      <c r="G28" t="s">
-        <v>3710</v>
-      </c>
-      <c r="H28" t="s">
-        <v>3709</v>
-      </c>
-      <c r="I28" t="s">
-        <v>3709</v>
-      </c>
-      <c r="R28" t="s">
-        <v>3711</v>
-      </c>
-      <c r="S28" t="s">
-        <v>135</v>
-      </c>
-      <c r="T28">
-        <v>957</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>240</v>
-      </c>
-      <c r="W28" t="s">
-        <v>3712</v>
-      </c>
-      <c r="X28" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>3713</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>3714</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>3715</v>
-      </c>
-      <c r="AF28">
-        <v>100</v>
-      </c>
-      <c r="AG28">
-        <v>12</v>
-      </c>
-      <c r="AW28">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <v>2851</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3722</v>
-      </c>
-      <c r="C29">
-        <v>318</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>2273</v>
-      </c>
-      <c r="G29" t="s">
-        <v>3723</v>
-      </c>
-      <c r="H29" t="s">
-        <v>3722</v>
-      </c>
-      <c r="I29" t="s">
-        <v>3722</v>
-      </c>
-      <c r="R29" t="s">
-        <v>3724</v>
-      </c>
-      <c r="S29" t="s">
-        <v>135</v>
-      </c>
-      <c r="T29">
-        <v>862</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>3725</v>
-      </c>
-      <c r="X29" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>3726</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>3727</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>3728</v>
-      </c>
-      <c r="AF29">
-        <v>100</v>
-      </c>
-      <c r="AG29">
-        <v>5</v>
-      </c>
-      <c r="AW29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>2680</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3729</v>
-      </c>
-      <c r="C30">
-        <v>314</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>2269</v>
-      </c>
-      <c r="G30" t="s">
-        <v>3730</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3729</v>
-      </c>
-      <c r="I30" t="s">
-        <v>3729</v>
-      </c>
-      <c r="R30" t="s">
-        <v>3731</v>
-      </c>
-      <c r="S30" t="s">
-        <v>135</v>
-      </c>
-      <c r="T30">
-        <v>4144</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>231</v>
-      </c>
-      <c r="W30" t="s">
-        <v>3732</v>
-      </c>
-      <c r="X30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>3733</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>3734</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>3735</v>
-      </c>
-      <c r="AF30">
-        <v>276</v>
-      </c>
-      <c r="AG30">
-        <v>12</v>
-      </c>
-      <c r="AW30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <v>2681</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3748</v>
-      </c>
-      <c r="C31">
-        <v>314</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>2269</v>
-      </c>
-      <c r="G31" t="s">
-        <v>3749</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3748</v>
-      </c>
-      <c r="I31" t="s">
-        <v>3748</v>
-      </c>
-      <c r="R31" t="s">
-        <v>3750</v>
-      </c>
-      <c r="S31" t="s">
-        <v>135</v>
-      </c>
-      <c r="T31">
-        <v>755</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>241</v>
-      </c>
-      <c r="W31" t="s">
-        <v>3751</v>
-      </c>
-      <c r="X31" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>3752</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>3753</v>
-      </c>
-      <c r="AF31">
-        <v>35</v>
-      </c>
-      <c r="AG31">
-        <v>12</v>
-      </c>
-      <c r="AW31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <v>2719</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3754</v>
-      </c>
-      <c r="C32">
-        <v>319</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2274</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3755</v>
-      </c>
-      <c r="H32" t="s">
-        <v>3754</v>
-      </c>
-      <c r="I32" t="s">
-        <v>3754</v>
-      </c>
-      <c r="R32" t="s">
-        <v>3756</v>
-      </c>
-      <c r="S32" t="s">
-        <v>135</v>
-      </c>
-      <c r="T32">
-        <v>607</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>296</v>
-      </c>
-      <c r="W32" t="s">
-        <v>3757</v>
-      </c>
-      <c r="X32" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>3758</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>3759</v>
-      </c>
-      <c r="AF32">
-        <v>25</v>
-      </c>
-      <c r="AG32">
-        <v>12</v>
-      </c>
-      <c r="AW32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>2898</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3765</v>
-      </c>
-      <c r="C33">
-        <v>318</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>2273</v>
-      </c>
-      <c r="G33" t="s">
-        <v>3766</v>
-      </c>
-      <c r="H33" t="s">
-        <v>3765</v>
-      </c>
-      <c r="I33" t="s">
-        <v>3765</v>
-      </c>
-      <c r="R33" t="s">
-        <v>3767</v>
-      </c>
-      <c r="S33" t="s">
-        <v>135</v>
-      </c>
-      <c r="T33">
-        <v>1807</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>3768</v>
-      </c>
-      <c r="X33" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>3769</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>3770</v>
-      </c>
-      <c r="AF33">
-        <v>300</v>
-      </c>
-      <c r="AG33">
-        <v>45416</v>
-      </c>
-      <c r="AW33">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>2690</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3771</v>
-      </c>
-      <c r="C34">
-        <v>314</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>2269</v>
-      </c>
-      <c r="G34" t="s">
-        <v>3772</v>
-      </c>
-      <c r="H34" t="s">
-        <v>3771</v>
-      </c>
-      <c r="I34" t="s">
-        <v>3771</v>
-      </c>
-      <c r="R34" t="s">
-        <v>3773</v>
-      </c>
-      <c r="S34" t="s">
-        <v>135</v>
-      </c>
-      <c r="T34">
-        <v>2869</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>299</v>
-      </c>
-      <c r="W34" t="s">
-        <v>3774</v>
-      </c>
-      <c r="X34" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>3775</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>3776</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>3777</v>
-      </c>
-      <c r="AF34">
-        <v>240</v>
-      </c>
-      <c r="AG34">
-        <v>12</v>
-      </c>
-      <c r="AW34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>2904</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3783</v>
-      </c>
-      <c r="C35">
-        <v>318</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>2273</v>
-      </c>
-      <c r="G35" t="s">
-        <v>3784</v>
-      </c>
-      <c r="H35" t="s">
-        <v>3783</v>
-      </c>
-      <c r="I35" t="s">
-        <v>3783</v>
-      </c>
-      <c r="R35" t="s">
-        <v>3785</v>
-      </c>
-      <c r="S35" t="s">
-        <v>135</v>
-      </c>
-      <c r="T35">
-        <v>1063</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>1083</v>
-      </c>
-      <c r="W35" t="s">
-        <v>3786</v>
-      </c>
-      <c r="X35" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>3787</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>3788</v>
-      </c>
-      <c r="AF35">
-        <v>200</v>
-      </c>
-      <c r="AG35">
-        <v>5</v>
-      </c>
-      <c r="AW35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>2908</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3795</v>
-      </c>
-      <c r="C36">
-        <v>318</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2273</v>
-      </c>
-      <c r="G36" t="s">
-        <v>3796</v>
-      </c>
-      <c r="H36" t="s">
-        <v>3795</v>
-      </c>
-      <c r="I36" t="s">
-        <v>3795</v>
-      </c>
-      <c r="R36" t="s">
-        <v>3797</v>
-      </c>
-      <c r="S36" t="s">
-        <v>135</v>
-      </c>
-      <c r="T36">
-        <v>957</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>4200</v>
-      </c>
-      <c r="W36" t="s">
-        <v>3676</v>
-      </c>
-      <c r="X36" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>3798</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>3799</v>
-      </c>
-      <c r="AF36">
-        <v>200</v>
-      </c>
-      <c r="AG36">
-        <v>45416</v>
-      </c>
-      <c r="AW36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>2785</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3810</v>
-      </c>
-      <c r="C37">
-        <v>319</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>2274</v>
-      </c>
-      <c r="G37" t="s">
-        <v>3811</v>
-      </c>
-      <c r="H37" t="s">
-        <v>3810</v>
-      </c>
-      <c r="I37" t="s">
-        <v>3810</v>
-      </c>
-      <c r="R37" t="s">
-        <v>3812</v>
-      </c>
-      <c r="S37" t="s">
-        <v>135</v>
-      </c>
-      <c r="T37">
-        <v>904</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>364</v>
-      </c>
-      <c r="W37" t="s">
-        <v>3813</v>
-      </c>
-      <c r="X37" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>3814</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>3815</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>3816</v>
-      </c>
-      <c r="AF37">
-        <v>60</v>
-      </c>
-      <c r="AG37">
-        <v>12</v>
-      </c>
-      <c r="AW37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>2946</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3817</v>
-      </c>
-      <c r="C38">
-        <v>318</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2273</v>
-      </c>
-      <c r="G38" t="s">
-        <v>3818</v>
-      </c>
-      <c r="H38" t="s">
-        <v>3817</v>
-      </c>
-      <c r="I38" t="s">
-        <v>3817</v>
-      </c>
-      <c r="R38" t="s">
-        <v>3819</v>
-      </c>
-      <c r="S38" t="s">
-        <v>135</v>
-      </c>
-      <c r="T38">
-        <v>1063</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>600</v>
-      </c>
-      <c r="W38" t="s">
-        <v>3820</v>
-      </c>
-      <c r="X38" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>3821</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>3822</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>3823</v>
-      </c>
-      <c r="AF38">
-        <v>200</v>
-      </c>
-      <c r="AG38">
-        <v>45416</v>
-      </c>
-      <c r="AW38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <v>2835</v>
-      </c>
-      <c r="B39" t="s">
-        <v>3829</v>
-      </c>
-      <c r="C39">
-        <v>314</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>2269</v>
-      </c>
-      <c r="G39" t="s">
-        <v>3830</v>
-      </c>
-      <c r="H39" t="s">
-        <v>3829</v>
-      </c>
-      <c r="I39" t="s">
-        <v>3829</v>
-      </c>
-      <c r="R39" t="s">
-        <v>3831</v>
-      </c>
-      <c r="S39" t="s">
-        <v>135</v>
-      </c>
-      <c r="T39">
-        <v>2976</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>60</v>
-      </c>
-      <c r="W39" t="s">
-        <v>3832</v>
-      </c>
-      <c r="X39" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>3833</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>3834</v>
-      </c>
-      <c r="AF39">
-        <v>300</v>
-      </c>
-      <c r="AG39">
-        <v>12</v>
-      </c>
-      <c r="AW39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <v>2799</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3835</v>
-      </c>
-      <c r="C40">
-        <v>319</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>2274</v>
-      </c>
-      <c r="G40" t="s">
-        <v>3836</v>
-      </c>
-      <c r="H40" t="s">
-        <v>3835</v>
-      </c>
-      <c r="I40" t="s">
-        <v>3835</v>
-      </c>
-      <c r="R40" t="s">
-        <v>3837</v>
-      </c>
-      <c r="S40" t="s">
-        <v>135</v>
-      </c>
-      <c r="T40">
-        <v>1446</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>190</v>
-      </c>
-      <c r="W40" t="s">
-        <v>3838</v>
-      </c>
-      <c r="X40" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>3839</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>3840</v>
-      </c>
-      <c r="AF40">
-        <v>200</v>
-      </c>
-      <c r="AG40">
-        <v>12</v>
-      </c>
-      <c r="AW40">
-        <v>45489</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <v>3269</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3841</v>
-      </c>
-      <c r="C41">
-        <v>318</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2273</v>
-      </c>
-      <c r="G41" t="s">
-        <v>3842</v>
-      </c>
-      <c r="H41" t="s">
-        <v>3841</v>
-      </c>
-      <c r="I41" t="s">
-        <v>3841</v>
-      </c>
-      <c r="R41" t="s">
-        <v>3843</v>
-      </c>
-      <c r="S41" t="s">
-        <v>135</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>3565</v>
-      </c>
-      <c r="X41" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>3844</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>3845</v>
-      </c>
-      <c r="AW41">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>2874</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3857</v>
-      </c>
-      <c r="C42">
-        <v>319</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2274</v>
-      </c>
-      <c r="G42" t="s">
-        <v>3858</v>
-      </c>
-      <c r="H42" t="s">
-        <v>3857</v>
-      </c>
-      <c r="I42" t="s">
-        <v>3857</v>
-      </c>
-      <c r="R42" t="s">
-        <v>3859</v>
-      </c>
-      <c r="S42" t="s">
-        <v>135</v>
-      </c>
-      <c r="T42">
-        <v>681</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>309</v>
-      </c>
-      <c r="W42" t="s">
-        <v>3860</v>
-      </c>
-      <c r="X42" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>3861</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>3862</v>
-      </c>
-      <c r="AF42">
-        <v>60</v>
-      </c>
-      <c r="AG42">
-        <v>12</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <v>3271</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3863</v>
-      </c>
-      <c r="C43">
-        <v>318</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>2273</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3864</v>
-      </c>
-      <c r="H43" t="s">
-        <v>3863</v>
-      </c>
-      <c r="I43" t="s">
-        <v>3863</v>
-      </c>
-      <c r="S43" t="s">
-        <v>135</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43" t="s">
-        <v>3820</v>
-      </c>
-      <c r="X43" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>3865</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>3866</v>
-      </c>
-      <c r="AW43">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <v>3161</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3882</v>
-      </c>
-      <c r="C44">
-        <v>319</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2274</v>
-      </c>
-      <c r="G44" t="s">
-        <v>3883</v>
-      </c>
-      <c r="H44" t="s">
-        <v>3882</v>
-      </c>
-      <c r="I44" t="s">
-        <v>3882</v>
-      </c>
-      <c r="R44" t="s">
-        <v>3884</v>
-      </c>
-      <c r="S44" t="s">
-        <v>135</v>
-      </c>
-      <c r="T44">
-        <v>1031</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>236</v>
-      </c>
-      <c r="W44" t="s">
-        <v>3885</v>
-      </c>
-      <c r="X44" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>3886</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>3714</v>
-      </c>
-      <c r="AF44">
-        <v>120</v>
-      </c>
-      <c r="AW44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <v>2995</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3892</v>
-      </c>
-      <c r="C45">
-        <v>314</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>2269</v>
-      </c>
-      <c r="G45" t="s">
-        <v>3893</v>
-      </c>
-      <c r="H45" t="s">
-        <v>3892</v>
-      </c>
-      <c r="I45" t="s">
-        <v>3892</v>
-      </c>
-      <c r="R45" t="s">
-        <v>3894</v>
-      </c>
-      <c r="S45" t="s">
-        <v>135</v>
-      </c>
-      <c r="T45">
-        <v>1424</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s">
-        <v>3895</v>
-      </c>
-      <c r="X45" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>3896</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>3897</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>3898</v>
-      </c>
-      <c r="AF45">
-        <v>100</v>
-      </c>
-      <c r="AG45">
-        <v>12</v>
-      </c>
-      <c r="AW45">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <v>3270</v>
-      </c>
-      <c r="B46" t="s">
-        <v>3899</v>
-      </c>
-      <c r="C46">
-        <v>319</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>2274</v>
-      </c>
-      <c r="G46" t="s">
-        <v>3900</v>
-      </c>
-      <c r="H46" t="s">
-        <v>3899</v>
-      </c>
-      <c r="I46" t="s">
-        <v>3899</v>
-      </c>
-      <c r="R46" t="s">
-        <v>3901</v>
-      </c>
-      <c r="S46" t="s">
-        <v>135</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46" t="s">
-        <v>3552</v>
-      </c>
-      <c r="X46" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>3902</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>3554</v>
-      </c>
-      <c r="AF46">
-        <v>100</v>
-      </c>
-      <c r="AG46">
-        <v>12</v>
-      </c>
-      <c r="AW46">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <v>2998</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3908</v>
-      </c>
-      <c r="C47">
-        <v>314</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>2269</v>
-      </c>
-      <c r="G47" t="s">
-        <v>3909</v>
-      </c>
-      <c r="H47" t="s">
-        <v>3908</v>
-      </c>
-      <c r="I47" t="s">
-        <v>3908</v>
-      </c>
-      <c r="R47" t="s">
-        <v>3910</v>
-      </c>
-      <c r="S47" t="s">
-        <v>135</v>
-      </c>
-      <c r="T47">
-        <v>2497</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
-        <v>3579</v>
-      </c>
-      <c r="X47" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>3911</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>3912</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>3913</v>
-      </c>
-      <c r="AF47">
-        <v>200</v>
-      </c>
-      <c r="AG47">
-        <v>12</v>
-      </c>
-      <c r="AW47">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/catalog.xlsx
+++ b/db/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seyanaracore/Documents/Projects/preact-module-calc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CDF6CD-F489-D14B-8649-203498B0BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830DF27D-91A8-C84D-970D-5B83C8C27452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15557,7 +15557,7 @@
   <dimension ref="A1:AY709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18818,7 +18818,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>2278</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>2318</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>2421</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>2330</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>2541</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>2355</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>2796</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="131" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>2374</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:46" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>3237</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="147" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>2461</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:43" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>3242</v>
       </c>
@@ -25261,7 +25261,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="171" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>2516</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="184" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>2534</v>
       </c>
@@ -26800,7 +26800,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="195" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>2542</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="207" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>2570</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="216" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>2592</v>
       </c>
@@ -28819,7 +28819,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="225" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>2610</v>
       </c>
@@ -29333,7 +29333,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="233" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>2616</v>
       </c>
@@ -30170,7 +30170,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>2662</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="255" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>2698</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="265" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>2701</v>
       </c>
@@ -32017,7 +32017,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="273" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>2759</v>
       </c>
@@ -32750,7 +32750,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="284" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>2809</v>
       </c>
@@ -33235,7 +33235,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="291" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>2814</v>
       </c>
@@ -34314,7 +34314,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="307" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>2824</v>
       </c>
@@ -34698,7 +34698,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="313" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>2854</v>
       </c>
@@ -35649,7 +35649,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>2883</v>
       </c>
@@ -36394,7 +36394,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="339" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>2907</v>
       </c>
@@ -37136,7 +37136,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="350" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>2972</v>
       </c>
@@ -37541,7 +37541,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="356" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>3148</v>
       </c>
@@ -37872,7 +37872,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="361" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>3151</v>
       </c>
@@ -61356,7 +61356,7 @@
   <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="307"/>
+        <filter val="305"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/db/catalog.xlsx
+++ b/db/catalog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seyanaracore/Documents/Projects/preact-module-calc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830DF27D-91A8-C84D-970D-5B83C8C27452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3C5DE0-EE7C-7143-9754-16D07B648C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export_ledexpress.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Необходимые модули" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">export_ledexpress.csv!$A$1:$AY$709</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8228" uniqueCount="4314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8284" uniqueCount="4320">
   <si>
     <t>id</t>
   </si>
@@ -15262,6 +15263,24 @@
   <si>
     <t>PARENT_ID</t>
   </si>
+  <si>
+    <t>СВЕТОДИОДНЫЙ МОДУЛЬ QIANGLI, Q1,25-RGB (320*160),INDOOR</t>
+  </si>
+  <si>
+    <t>parent id</t>
+  </si>
+  <si>
+    <t>to copy id</t>
+  </si>
+  <si>
+    <t>id value</t>
+  </si>
+  <si>
+    <t>parent id value</t>
+  </si>
+  <si>
+    <t>было до</t>
+  </si>
 </sst>
 </file>
 
@@ -15273,7 +15292,7 @@
     <numFmt numFmtId="166" formatCode="d/m"/>
     <numFmt numFmtId="167" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -15302,13 +15321,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -15324,7 +15364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -15335,6 +15375,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -15551,7 +15596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AY709"/>
@@ -15728,7 +15773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15883,7 +15928,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -16038,7 +16083,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2226</v>
       </c>
@@ -16085,7 +16130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2254</v>
       </c>
@@ -16117,7 +16162,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2246</v>
       </c>
@@ -16149,7 +16194,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2259</v>
       </c>
@@ -16181,7 +16226,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>2267</v>
       </c>
@@ -16216,7 +16261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2229</v>
       </c>
@@ -16248,7 +16293,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2228</v>
       </c>
@@ -16283,7 +16328,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3256</v>
       </c>
@@ -16315,7 +16360,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>2247</v>
       </c>
@@ -16350,7 +16395,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3257</v>
       </c>
@@ -16406,7 +16451,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>2414</v>
       </c>
@@ -16465,7 +16510,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>2255</v>
       </c>
@@ -16500,7 +16545,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>2230</v>
       </c>
@@ -16538,7 +16583,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>2268</v>
       </c>
@@ -16573,7 +16618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2260</v>
       </c>
@@ -16611,7 +16656,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>2248</v>
       </c>
@@ -16649,7 +16694,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>2272</v>
       </c>
@@ -16684,7 +16729,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>2231</v>
       </c>
@@ -16722,7 +16767,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3258</v>
       </c>
@@ -16778,7 +16823,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2602</v>
       </c>
@@ -16837,7 +16882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>2256</v>
       </c>
@@ -16872,7 +16917,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>2261</v>
       </c>
@@ -16907,7 +16952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>2257</v>
       </c>
@@ -16945,7 +16990,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>2232</v>
       </c>
@@ -16983,7 +17028,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>2249</v>
       </c>
@@ -17018,7 +17063,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>2262</v>
       </c>
@@ -17053,7 +17098,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3259</v>
       </c>
@@ -17109,7 +17154,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>2233</v>
       </c>
@@ -17147,7 +17192,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>2258</v>
       </c>
@@ -17185,7 +17230,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3260</v>
       </c>
@@ -17241,7 +17286,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>2263</v>
       </c>
@@ -17276,7 +17321,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>2250</v>
       </c>
@@ -17311,7 +17356,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>2251</v>
       </c>
@@ -17346,7 +17391,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>2264</v>
       </c>
@@ -17381,7 +17426,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>2236</v>
       </c>
@@ -17419,7 +17464,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>3144</v>
       </c>
@@ -17454,7 +17499,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>2265</v>
       </c>
@@ -17489,7 +17534,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>2252</v>
       </c>
@@ -17527,7 +17572,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>2253</v>
       </c>
@@ -17562,7 +17607,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>2266</v>
       </c>
@@ -17597,7 +17642,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>2234</v>
       </c>
@@ -17632,7 +17677,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>2315</v>
       </c>
@@ -17691,7 +17736,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>2286</v>
       </c>
@@ -17750,7 +17795,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>2340</v>
       </c>
@@ -17806,7 +17851,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>3029</v>
       </c>
@@ -17871,7 +17916,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>2294</v>
       </c>
@@ -17930,7 +17975,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>2273</v>
       </c>
@@ -17965,7 +18010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>2276</v>
       </c>
@@ -18048,7 +18093,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>2326</v>
       </c>
@@ -18128,7 +18173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>2295</v>
       </c>
@@ -18181,7 +18226,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>2299</v>
       </c>
@@ -18261,7 +18306,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>2296</v>
       </c>
@@ -18314,7 +18359,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>2237</v>
       </c>
@@ -18349,7 +18394,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>3132</v>
       </c>
@@ -18408,7 +18453,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>3198</v>
       </c>
@@ -18464,7 +18509,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>2300</v>
       </c>
@@ -18529,7 +18574,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>3153</v>
       </c>
@@ -18609,7 +18654,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>2453</v>
       </c>
@@ -18665,7 +18710,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>2277</v>
       </c>
@@ -18721,7 +18766,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>2292</v>
       </c>
@@ -18783,7 +18828,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:44" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>2269</v>
       </c>
@@ -18883,7 +18928,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>2239</v>
       </c>
@@ -18977,7 +19022,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>2274</v>
       </c>
@@ -19012,7 +19057,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>2235</v>
       </c>
@@ -19047,7 +19092,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>2517</v>
       </c>
@@ -19103,7 +19148,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>2289</v>
       </c>
@@ -19171,7 +19216,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>2418</v>
       </c>
@@ -19227,7 +19272,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>3030</v>
       </c>
@@ -19292,7 +19337,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>2428</v>
       </c>
@@ -19348,7 +19393,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>2328</v>
       </c>
@@ -19431,7 +19476,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>2421</v>
       </c>
@@ -19487,7 +19532,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>2301</v>
       </c>
@@ -19540,7 +19585,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>2302</v>
       </c>
@@ -19614,7 +19659,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>3133</v>
       </c>
@@ -19670,7 +19715,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>3199</v>
       </c>
@@ -19726,7 +19771,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>2354</v>
       </c>
@@ -19791,7 +19836,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="82" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>2351</v>
       </c>
@@ -19868,7 +19913,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>3154</v>
       </c>
@@ -19948,7 +19993,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>2499</v>
       </c>
@@ -20004,7 +20049,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>2298</v>
       </c>
@@ -20066,7 +20111,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>2270</v>
       </c>
@@ -20101,7 +20146,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>2306</v>
       </c>
@@ -20219,7 +20264,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>2271</v>
       </c>
@@ -20254,7 +20299,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="90" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>2241</v>
       </c>
@@ -20289,7 +20334,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>2275</v>
       </c>
@@ -20324,7 +20369,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>2700</v>
       </c>
@@ -20383,7 +20428,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>2913</v>
       </c>
@@ -20442,7 +20487,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>2313</v>
       </c>
@@ -20507,7 +20552,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>2372</v>
       </c>
@@ -20560,7 +20605,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="96" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>3031</v>
       </c>
@@ -20625,7 +20670,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>2481</v>
       </c>
@@ -20681,7 +20726,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>2357</v>
       </c>
@@ -20764,7 +20809,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>2541</v>
       </c>
@@ -20820,7 +20865,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>2329</v>
       </c>
@@ -20879,7 +20924,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>2303</v>
       </c>
@@ -20953,7 +20998,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>3200</v>
       </c>
@@ -21009,7 +21054,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>2359</v>
       </c>
@@ -21074,7 +21119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>3155</v>
       </c>
@@ -21154,7 +21199,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>2577</v>
       </c>
@@ -21210,7 +21255,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>2407</v>
       </c>
@@ -21266,7 +21311,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>2744</v>
       </c>
@@ -21325,7 +21370,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>2319</v>
       </c>
@@ -21390,7 +21435,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>2309</v>
       </c>
@@ -21473,7 +21518,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>2455</v>
       </c>
@@ -21529,7 +21574,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>3032</v>
       </c>
@@ -21594,7 +21639,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>2508</v>
       </c>
@@ -21653,7 +21698,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>2524</v>
       </c>
@@ -21709,7 +21754,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>2403</v>
       </c>
@@ -21774,7 +21819,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>2612</v>
       </c>
@@ -21830,7 +21875,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>2441</v>
       </c>
@@ -21883,7 +21928,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>2323</v>
       </c>
@@ -22004,7 +22049,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>2845</v>
       </c>
@@ -22063,7 +22108,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>2333</v>
       </c>
@@ -22131,7 +22176,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>2528</v>
       </c>
@@ -22190,7 +22235,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>3033</v>
       </c>
@@ -22255,7 +22300,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>2796</v>
       </c>
@@ -22311,7 +22356,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>2382</v>
       </c>
@@ -22370,7 +22415,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>2568</v>
       </c>
@@ -22426,7 +22471,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>3202</v>
       </c>
@@ -22482,7 +22527,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>2445</v>
       </c>
@@ -22547,7 +22592,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>2642</v>
       </c>
@@ -22603,7 +22648,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="129" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>2806</v>
       </c>
@@ -22659,7 +22704,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="130" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>2335</v>
       </c>
@@ -22783,7 +22828,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="132" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>2942</v>
       </c>
@@ -22842,7 +22887,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="133" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>2334</v>
       </c>
@@ -22910,7 +22955,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="134" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>2336</v>
       </c>
@@ -22993,7 +23038,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>2622</v>
       </c>
@@ -23049,7 +23094,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="136" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>2401</v>
       </c>
@@ -23132,7 +23177,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>2560</v>
       </c>
@@ -23188,7 +23233,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="138" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>2344</v>
       </c>
@@ -23265,7 +23310,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="139" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>3034</v>
       </c>
@@ -23330,7 +23375,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>3237</v>
       </c>
@@ -23386,7 +23431,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="141" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>2725</v>
       </c>
@@ -23445,7 +23490,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="142" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>2487</v>
       </c>
@@ -23525,7 +23570,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="143" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>3203</v>
       </c>
@@ -23581,7 +23626,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>2460</v>
       </c>
@@ -23646,7 +23691,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="145" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>2714</v>
       </c>
@@ -23702,7 +23747,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="146" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>2832</v>
       </c>
@@ -23820,7 +23865,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="148" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>2342</v>
       </c>
@@ -23885,7 +23930,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="149" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>2339</v>
       </c>
@@ -23968,7 +24013,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="150" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>2668</v>
       </c>
@@ -24024,7 +24069,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="151" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>2352</v>
       </c>
@@ -24104,7 +24149,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="152" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>3035</v>
       </c>
@@ -24172,7 +24217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>3242</v>
       </c>
@@ -24228,7 +24273,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="154" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>2768</v>
       </c>
@@ -24284,7 +24329,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="155" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>3204</v>
       </c>
@@ -24340,7 +24385,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="156" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>2535</v>
       </c>
@@ -24405,7 +24450,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="157" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>2732</v>
       </c>
@@ -24470,7 +24515,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="158" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>2757</v>
       </c>
@@ -24523,7 +24568,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="159" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>2903</v>
       </c>
@@ -24579,7 +24624,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="160" spans="1:43" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:43" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>2369</v>
       </c>
@@ -24641,7 +24686,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>2347</v>
       </c>
@@ -24709,7 +24754,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="162" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>2462</v>
       </c>
@@ -24795,7 +24840,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>2611</v>
       </c>
@@ -24854,7 +24899,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="164" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>2425</v>
       </c>
@@ -24907,7 +24952,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="165" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>2760</v>
       </c>
@@ -24963,7 +25008,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="166" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>3036</v>
       </c>
@@ -25028,7 +25073,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="167" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>3205</v>
       </c>
@@ -25084,7 +25129,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="168" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>2793</v>
       </c>
@@ -25149,7 +25194,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="169" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>2933</v>
       </c>
@@ -25205,7 +25250,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="170" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>2390</v>
       </c>
@@ -25320,7 +25365,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>2349</v>
       </c>
@@ -25385,7 +25430,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>2659</v>
       </c>
@@ -25441,7 +25486,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="174" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>2377</v>
       </c>
@@ -25518,7 +25563,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="175" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>2836</v>
       </c>
@@ -25577,7 +25622,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="176" spans="1:47" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:47" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>2830</v>
       </c>
@@ -25633,7 +25678,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="177" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>3037</v>
       </c>
@@ -25698,7 +25743,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="178" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>2801</v>
       </c>
@@ -25778,7 +25823,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>3206</v>
       </c>
@@ -25840,7 +25885,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="180" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>2931</v>
       </c>
@@ -25896,7 +25941,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="181" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>2850</v>
       </c>
@@ -25961,7 +26006,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="182" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>2984</v>
       </c>
@@ -26017,7 +26062,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="183" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>2429</v>
       </c>
@@ -26144,7 +26189,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="185" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>2523</v>
       </c>
@@ -26227,7 +26272,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>2378</v>
       </c>
@@ -26301,7 +26346,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>2843</v>
       </c>
@@ -26357,7 +26402,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="188" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>2936</v>
       </c>
@@ -26413,7 +26458,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="189" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>3038</v>
       </c>
@@ -26481,7 +26526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>2827</v>
       </c>
@@ -26561,7 +26606,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="191" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>3208</v>
       </c>
@@ -26617,7 +26662,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>2949</v>
       </c>
@@ -26673,7 +26718,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="193" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>2910</v>
       </c>
@@ -26738,7 +26783,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="194" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>2451</v>
       </c>
@@ -26862,7 +26907,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="196" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>2367</v>
       </c>
@@ -26945,7 +26990,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="197" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>2366</v>
       </c>
@@ -27010,7 +27055,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="198" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>2546</v>
       </c>
@@ -27087,7 +27132,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="199" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>2667</v>
       </c>
@@ -27140,7 +27185,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="200" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>2385</v>
       </c>
@@ -27217,7 +27262,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="201" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>3010</v>
       </c>
@@ -27273,7 +27318,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="202" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>3039</v>
       </c>
@@ -27341,7 +27386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>2859</v>
       </c>
@@ -27421,7 +27466,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="204" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>3209</v>
       </c>
@@ -27480,7 +27525,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="205" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>2966</v>
       </c>
@@ -27545,7 +27590,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="206" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>2458</v>
       </c>
@@ -27666,7 +27711,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="208" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>2373</v>
       </c>
@@ -27731,7 +27776,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="209" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>2548</v>
       </c>
@@ -27814,7 +27859,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="210" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>3011</v>
       </c>
@@ -27873,7 +27918,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="211" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>3040</v>
       </c>
@@ -27941,7 +27986,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="212" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>2864</v>
       </c>
@@ -28021,7 +28066,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="213" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>3041</v>
       </c>
@@ -28086,7 +28131,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="214" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>3210</v>
       </c>
@@ -28145,7 +28190,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>2384</v>
       </c>
@@ -28290,7 +28335,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="217" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>2495</v>
       </c>
@@ -28349,7 +28394,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="218" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>2756</v>
       </c>
@@ -28405,7 +28450,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="219" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>2376</v>
       </c>
@@ -28473,7 +28518,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="220" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>2553</v>
       </c>
@@ -28556,7 +28601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="221" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>2392</v>
       </c>
@@ -28633,7 +28678,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>3042</v>
       </c>
@@ -28698,7 +28743,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="223" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>3211</v>
       </c>
@@ -28757,7 +28802,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="224" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>2496</v>
       </c>
@@ -28884,7 +28929,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="226" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>2792</v>
       </c>
@@ -28940,7 +28985,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="227" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>2393</v>
       </c>
@@ -29008,7 +29053,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="228" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>2586</v>
       </c>
@@ -29091,7 +29136,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>3043</v>
       </c>
@@ -29156,7 +29201,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="230" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>3212</v>
       </c>
@@ -29212,7 +29257,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="231" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>2533</v>
       </c>
@@ -29271,7 +29316,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="232" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>2509</v>
       </c>
@@ -29395,7 +29440,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="234" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>2794</v>
       </c>
@@ -29451,7 +29496,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="235" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>2417</v>
       </c>
@@ -29531,7 +29576,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="236" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>2395</v>
       </c>
@@ -29599,7 +29644,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="237" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>2591</v>
       </c>
@@ -29682,7 +29727,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="238" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>2427</v>
       </c>
@@ -29756,7 +29801,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>2397</v>
       </c>
@@ -29821,7 +29866,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="240" spans="1:46" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:46" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>3134</v>
       </c>
@@ -29901,7 +29946,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>3044</v>
       </c>
@@ -29966,7 +30011,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>3213</v>
       </c>
@@ -30025,7 +30070,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="243" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>2513</v>
       </c>
@@ -30087,7 +30132,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>2432</v>
       </c>
@@ -30235,7 +30280,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="246" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>2803</v>
       </c>
@@ -30291,7 +30336,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="247" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>2645</v>
       </c>
@@ -30374,7 +30419,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="248" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>3167</v>
       </c>
@@ -30430,7 +30475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>2437</v>
       </c>
@@ -30507,7 +30552,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>2406</v>
       </c>
@@ -30569,7 +30614,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="251" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>3045</v>
       </c>
@@ -30634,7 +30679,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="252" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>3214</v>
       </c>
@@ -30690,7 +30735,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="253" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>2531</v>
       </c>
@@ -30749,7 +30794,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="254" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>2582</v>
       </c>
@@ -30858,7 +30903,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>3157</v>
       </c>
@@ -30944,7 +30989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>3229</v>
       </c>
@@ -31000,7 +31045,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="258" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>2443</v>
       </c>
@@ -31074,7 +31119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>2436</v>
       </c>
@@ -31139,7 +31184,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="260" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>3046</v>
       </c>
@@ -31207,7 +31252,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="261" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>3215</v>
       </c>
@@ -31263,7 +31308,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="262" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>2536</v>
       </c>
@@ -31322,7 +31367,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="263" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>2467</v>
       </c>
@@ -31405,7 +31450,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="264" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>2595</v>
       </c>
@@ -31523,7 +31568,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="266" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>2699</v>
       </c>
@@ -31606,7 +31651,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="267" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>3158</v>
       </c>
@@ -31692,7 +31737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>2480</v>
       </c>
@@ -31772,7 +31817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="269" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>2439</v>
       </c>
@@ -31837,7 +31882,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="270" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>3047</v>
       </c>
@@ -31902,7 +31947,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="271" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>3216</v>
       </c>
@@ -31958,7 +32003,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="272" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>2537</v>
       </c>
@@ -32079,7 +32124,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="274" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>3160</v>
       </c>
@@ -32165,7 +32210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>2490</v>
       </c>
@@ -32242,7 +32287,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="276" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>2456</v>
       </c>
@@ -32307,7 +32352,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>3048</v>
       </c>
@@ -32372,7 +32417,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="278" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>3217</v>
       </c>
@@ -32428,7 +32473,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>2630</v>
       </c>
@@ -32481,7 +32526,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="280" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>3272</v>
       </c>
@@ -32561,7 +32606,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>2468</v>
       </c>
@@ -32629,7 +32674,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="282" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>3049</v>
       </c>
@@ -32694,7 +32739,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="283" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>3218</v>
       </c>
@@ -32812,7 +32857,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="285" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>2729</v>
       </c>
@@ -32895,7 +32940,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="286" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>3273</v>
       </c>
@@ -32975,7 +33020,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>2552</v>
       </c>
@@ -33049,7 +33094,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="288" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>3050</v>
       </c>
@@ -33114,7 +33159,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="289" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>3219</v>
       </c>
@@ -33173,7 +33218,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="290" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>2587</v>
       </c>
@@ -33297,7 +33342,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="292" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>2742</v>
       </c>
@@ -33380,7 +33425,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>2585</v>
       </c>
@@ -33457,7 +33502,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="294" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>2472</v>
       </c>
@@ -33528,7 +33573,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="295" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>3051</v>
       </c>
@@ -33593,7 +33638,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="296" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>3220</v>
       </c>
@@ -33649,7 +33694,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="297" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>2589</v>
       </c>
@@ -33708,7 +33753,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="298" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>2597</v>
       </c>
@@ -33770,7 +33815,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="299" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>2593</v>
       </c>
@@ -33847,7 +33892,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="300" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>2476</v>
       </c>
@@ -33915,7 +33960,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="301" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>3052</v>
       </c>
@@ -33980,7 +34025,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="302" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>2751</v>
       </c>
@@ -34063,7 +34108,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>2478</v>
       </c>
@@ -34131,7 +34176,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="304" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>3053</v>
       </c>
@@ -34196,7 +34241,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="305" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>3222</v>
       </c>
@@ -34252,7 +34297,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="306" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>2653</v>
       </c>
@@ -34376,7 +34421,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="308" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>2484</v>
       </c>
@@ -34441,7 +34486,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="309" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>3054</v>
       </c>
@@ -34506,7 +34551,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="310" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>2609</v>
       </c>
@@ -34589,7 +34634,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>3223</v>
       </c>
@@ -34645,7 +34690,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="312" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>2720</v>
       </c>
@@ -34760,7 +34805,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="314" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>2621</v>
       </c>
@@ -34834,7 +34879,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="315" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>3055</v>
       </c>
@@ -34893,7 +34938,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="316" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>3224</v>
       </c>
@@ -34952,7 +34997,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="317" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>2767</v>
       </c>
@@ -35005,7 +35050,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="318" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>3225</v>
       </c>
@@ -35061,7 +35106,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="319" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>2770</v>
       </c>
@@ -35114,7 +35159,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="320" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>2669</v>
       </c>
@@ -35176,7 +35221,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="321" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>2623</v>
       </c>
@@ -35256,7 +35301,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="322" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>2489</v>
       </c>
@@ -35324,7 +35369,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="323" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>3056</v>
       </c>
@@ -35383,7 +35428,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="324" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>3057</v>
       </c>
@@ -35448,7 +35493,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="325" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>3226</v>
       </c>
@@ -35504,7 +35549,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="326" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>2670</v>
       </c>
@@ -35566,7 +35611,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="327" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>2823</v>
       </c>
@@ -35717,7 +35762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>2624</v>
       </c>
@@ -35794,7 +35839,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="330" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>2498</v>
       </c>
@@ -35859,7 +35904,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="331" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>2656</v>
       </c>
@@ -35942,7 +35987,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="332" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>3058</v>
       </c>
@@ -36010,7 +36055,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="333" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>2805</v>
       </c>
@@ -36063,7 +36108,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="334" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>2834</v>
       </c>
@@ -36146,7 +36191,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="335" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>2501</v>
       </c>
@@ -36211,7 +36256,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="336" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>3059</v>
       </c>
@@ -36276,7 +36321,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="337" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>2810</v>
       </c>
@@ -36335,7 +36380,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="338" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>2722</v>
       </c>
@@ -36459,7 +36504,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="340" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>2677</v>
       </c>
@@ -36533,7 +36578,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="341" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>2520</v>
       </c>
@@ -36601,7 +36646,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="342" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>3060</v>
       </c>
@@ -36666,7 +36711,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="343" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>2811</v>
       </c>
@@ -36725,7 +36770,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="344" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>2844</v>
       </c>
@@ -36808,7 +36853,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="345" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>2683</v>
       </c>
@@ -36885,7 +36930,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="346" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>2521</v>
       </c>
@@ -36950,7 +36995,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="347" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>3061</v>
       </c>
@@ -37015,7 +37060,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="348" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>2860</v>
       </c>
@@ -37074,7 +37119,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="349" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>2727</v>
       </c>
@@ -37201,7 +37246,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="351" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>2853</v>
       </c>
@@ -37284,7 +37329,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="352" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>2522</v>
       </c>
@@ -37352,7 +37397,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>2532</v>
       </c>
@@ -37414,7 +37459,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="354" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>3062</v>
       </c>
@@ -37482,7 +37527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>2892</v>
       </c>
@@ -37603,7 +37648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="357" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>2856</v>
       </c>
@@ -37686,7 +37731,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="358" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>2550</v>
       </c>
@@ -37751,7 +37796,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="359" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>3063</v>
       </c>
@@ -37819,7 +37864,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="360" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>2912</v>
       </c>
@@ -37934,7 +37979,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="362" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>2704</v>
       </c>
@@ -38011,7 +38056,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="363" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>2551</v>
       </c>
@@ -38073,7 +38118,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="364" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>3064</v>
       </c>
@@ -38141,7 +38186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>2928</v>
       </c>
@@ -38197,7 +38242,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="366" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>2858</v>
       </c>
@@ -38280,7 +38325,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="367" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>2705</v>
       </c>
@@ -38357,7 +38402,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="368" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>2747</v>
       </c>
@@ -38440,7 +38485,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="369" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>2749</v>
       </c>
@@ -38523,7 +38568,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="370" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>3065</v>
       </c>
@@ -38591,7 +38636,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="371" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>2952</v>
       </c>
@@ -38650,7 +38695,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="372" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>2715</v>
       </c>
@@ -38727,7 +38772,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="373" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>2735</v>
       </c>
@@ -38804,7 +38849,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="374" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>2818</v>
       </c>
@@ -38884,7 +38929,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="375" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>2558</v>
       </c>
@@ -38943,7 +38988,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="376" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>2774</v>
       </c>
@@ -39002,7 +39047,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="377" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>3066</v>
       </c>
@@ -39067,7 +39112,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="378" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>2962</v>
       </c>
@@ -39114,7 +39159,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="379" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>2826</v>
       </c>
@@ -39197,7 +39242,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="380" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>2565</v>
       </c>
@@ -39265,7 +39310,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="381" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>2778</v>
       </c>
@@ -39327,7 +39372,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>3067</v>
       </c>
@@ -39392,7 +39437,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="383" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>3246</v>
       </c>
@@ -39448,7 +39493,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="384" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>2884</v>
       </c>
@@ -39528,7 +39573,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="385" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>2738</v>
       </c>
@@ -39605,7 +39650,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="386" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>2567</v>
       </c>
@@ -39664,7 +39709,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="387" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>2783</v>
       </c>
@@ -39723,7 +39768,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="388" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>3068</v>
       </c>
@@ -39791,7 +39836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>3251</v>
       </c>
@@ -39838,7 +39883,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="390" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>2885</v>
       </c>
@@ -39921,7 +39966,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="391" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>2750</v>
       </c>
@@ -39998,7 +40043,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="392" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>2867</v>
       </c>
@@ -40081,7 +40126,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="393" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>2583</v>
       </c>
@@ -40146,7 +40191,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="394" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>2786</v>
       </c>
@@ -40205,7 +40250,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="395" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>2752</v>
       </c>
@@ -40282,7 +40327,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="396" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>2869</v>
       </c>
@@ -40365,7 +40410,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="397" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>2601</v>
       </c>
@@ -40433,7 +40478,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="398" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>3070</v>
       </c>
@@ -40501,7 +40546,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="399" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>2755</v>
       </c>
@@ -40578,7 +40623,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="400" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>2872</v>
       </c>
@@ -40661,7 +40706,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="401" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>2625</v>
       </c>
@@ -40720,7 +40765,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="402" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>2807</v>
       </c>
@@ -40779,7 +40824,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="403" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>3071</v>
       </c>
@@ -40844,7 +40889,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="404" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>2763</v>
       </c>
@@ -40921,7 +40966,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="405" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>2626</v>
       </c>
@@ -40989,7 +41034,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="406" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>2852</v>
       </c>
@@ -41048,7 +41093,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="407" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>2948</v>
       </c>
@@ -41131,7 +41176,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="408" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>3072</v>
       </c>
@@ -41196,7 +41241,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="409" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>2632</v>
       </c>
@@ -41258,7 +41303,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="410" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>2955</v>
       </c>
@@ -41341,7 +41386,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="411" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>3073</v>
       </c>
@@ -41406,7 +41451,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="412" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>3227</v>
       </c>
@@ -41471,7 +41516,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="413" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>2940</v>
       </c>
@@ -41554,7 +41599,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="414" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>2861</v>
       </c>
@@ -41613,7 +41658,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="415" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>2973</v>
       </c>
@@ -41696,7 +41741,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="416" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>3005</v>
       </c>
@@ -41779,7 +41824,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="417" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>2956</v>
       </c>
@@ -41862,7 +41907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="418" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>2647</v>
       </c>
@@ -41933,7 +41978,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="419" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>2879</v>
       </c>
@@ -41995,7 +42040,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="420" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>2842</v>
       </c>
@@ -42072,7 +42117,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="421" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>3143</v>
       </c>
@@ -42155,7 +42200,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="422" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>2863</v>
       </c>
@@ -42229,7 +42274,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="423" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>2976</v>
       </c>
@@ -42312,7 +42357,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="424" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>2706</v>
       </c>
@@ -42380,7 +42425,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="425" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>2900</v>
       </c>
@@ -42442,7 +42487,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="426" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>3159</v>
       </c>
@@ -42525,7 +42570,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="427" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>2870</v>
       </c>
@@ -42602,7 +42647,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="428" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>2709</v>
       </c>
@@ -42667,7 +42712,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="429" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>3162</v>
       </c>
@@ -42750,7 +42795,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="430" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>2882</v>
       </c>
@@ -42827,7 +42872,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="431" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>2711</v>
       </c>
@@ -42892,7 +42937,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="432" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>2918</v>
       </c>
@@ -42954,7 +42999,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="433" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>3163</v>
       </c>
@@ -43037,7 +43082,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="434" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>2914</v>
       </c>
@@ -43114,7 +43159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>2730</v>
       </c>
@@ -43173,7 +43218,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="436" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>3164</v>
       </c>
@@ -43256,7 +43301,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="437" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>3136</v>
       </c>
@@ -43339,7 +43384,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="438" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>2753</v>
       </c>
@@ -43410,7 +43455,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="439" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>2961</v>
       </c>
@@ -43469,7 +43514,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="440" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>3166</v>
       </c>
@@ -43552,7 +43597,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="441" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>3137</v>
       </c>
@@ -43635,7 +43680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="442" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>2957</v>
       </c>
@@ -43712,7 +43757,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="443" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>2762</v>
       </c>
@@ -43783,7 +43828,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="444" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>2964</v>
       </c>
@@ -43842,7 +43887,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="445" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>3232</v>
       </c>
@@ -43922,7 +43967,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="446" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>3138</v>
       </c>
@@ -44005,7 +44050,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="447" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>2766</v>
       </c>
@@ -44070,7 +44115,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="448" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>3239</v>
       </c>
@@ -44153,7 +44198,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="449" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>2975</v>
       </c>
@@ -44230,7 +44275,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="450" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>3139</v>
       </c>
@@ -44313,7 +44358,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="451" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>2983</v>
       </c>
@@ -44375,7 +44420,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="452" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>2978</v>
       </c>
@@ -44452,7 +44497,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="453" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>3140</v>
       </c>
@@ -44535,7 +44580,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="454" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>2784</v>
       </c>
@@ -44594,7 +44639,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="455" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>2986</v>
       </c>
@@ -44653,7 +44698,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="456" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>3142</v>
       </c>
@@ -44736,7 +44781,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="457" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>2797</v>
       </c>
@@ -44804,7 +44849,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="458" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>3008</v>
       </c>
@@ -44866,7 +44911,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="459" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>2982</v>
       </c>
@@ -44943,7 +44988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="460" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>3149</v>
       </c>
@@ -45026,7 +45071,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="461" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>3165</v>
       </c>
@@ -45109,7 +45154,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="462" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>3019</v>
       </c>
@@ -45171,7 +45216,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="463" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>3238</v>
       </c>
@@ -45254,7 +45299,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="464" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>2812</v>
       </c>
@@ -45322,7 +45367,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="465" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>3075</v>
       </c>
@@ -45381,7 +45426,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="466" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>3009</v>
       </c>
@@ -45452,7 +45497,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="467" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>3015</v>
       </c>
@@ -45529,7 +45574,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="468" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>3247</v>
       </c>
@@ -45609,7 +45654,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="469" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>2821</v>
       </c>
@@ -45668,7 +45713,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="470" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>3076</v>
       </c>
@@ -45727,7 +45772,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="471" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>3016</v>
       </c>
@@ -45804,7 +45849,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="472" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>3248</v>
       </c>
@@ -45887,7 +45932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>3077</v>
       </c>
@@ -45949,7 +45994,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="474" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>3017</v>
       </c>
@@ -46026,7 +46071,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="475" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>3078</v>
       </c>
@@ -46085,7 +46130,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="476" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>3230</v>
       </c>
@@ -46162,7 +46207,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="477" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>2839</v>
       </c>
@@ -46227,7 +46272,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="478" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>3079</v>
       </c>
@@ -46289,7 +46334,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="479" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>3231</v>
       </c>
@@ -46366,7 +46411,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="480" spans="1:48" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:48" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>2846</v>
       </c>
@@ -46431,7 +46476,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="481" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>3080</v>
       </c>
@@ -46493,7 +46538,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="482" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>3081</v>
       </c>
@@ -46555,7 +46600,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="483" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>2868</v>
       </c>
@@ -46623,7 +46668,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="484" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>3082</v>
       </c>
@@ -46682,7 +46727,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="485" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>2880</v>
       </c>
@@ -46747,7 +46792,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="486" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>3083</v>
       </c>
@@ -46809,7 +46854,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="487" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>3084</v>
       </c>
@@ -46871,7 +46916,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="488" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>3085</v>
       </c>
@@ -46930,7 +46975,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="489" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>2889</v>
       </c>
@@ -47001,7 +47046,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="490" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>3086</v>
       </c>
@@ -47063,7 +47108,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="491" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>3087</v>
       </c>
@@ -47125,7 +47170,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="492" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>2895</v>
       </c>
@@ -47193,7 +47238,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="493" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>3088</v>
       </c>
@@ -47255,7 +47300,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="494" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>2954</v>
       </c>
@@ -47323,7 +47368,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="495" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>3089</v>
       </c>
@@ -47385,7 +47430,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="496" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>3002</v>
       </c>
@@ -47453,7 +47498,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="497" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>3090</v>
       </c>
@@ -47515,7 +47560,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="498" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>3074</v>
       </c>
@@ -47580,7 +47625,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="499" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>3168</v>
       </c>
@@ -47648,7 +47693,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="500" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>3091</v>
       </c>
@@ -47707,7 +47752,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="501" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>3233</v>
       </c>
@@ -47772,7 +47817,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="502" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>3092</v>
       </c>
@@ -47831,7 +47876,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="503" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>3236</v>
       </c>
@@ -47899,7 +47944,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="504" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>3093</v>
       </c>
@@ -47958,7 +48003,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="505" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>3241</v>
       </c>
@@ -48020,7 +48065,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="506" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>3245</v>
       </c>
@@ -48085,7 +48130,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="507" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>3095</v>
       </c>
@@ -48144,7 +48189,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="508" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>3096</v>
       </c>
@@ -48206,7 +48251,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="509" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>3097</v>
       </c>
@@ -48265,7 +48310,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="510" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>3099</v>
       </c>
@@ -48324,7 +48369,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="511" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>3100</v>
       </c>
@@ -48386,7 +48431,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="512" spans="1:45" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:45" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>3101</v>
       </c>
@@ -48445,7 +48490,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="513" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>3102</v>
       </c>
@@ -48507,7 +48552,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="514" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>3103</v>
       </c>
@@ -48566,7 +48611,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="515" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>3104</v>
       </c>
@@ -48628,7 +48673,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="516" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>3105</v>
       </c>
@@ -48690,7 +48735,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="517" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>3106</v>
       </c>
@@ -48752,7 +48797,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="518" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>3107</v>
       </c>
@@ -48814,7 +48859,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="519" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>3108</v>
       </c>
@@ -48876,7 +48921,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="520" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>3109</v>
       </c>
@@ -48938,7 +48983,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="521" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>3111</v>
       </c>
@@ -49000,7 +49045,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="522" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>3112</v>
       </c>
@@ -49059,7 +49104,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="523" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>3113</v>
       </c>
@@ -49121,7 +49166,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="524" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>3114</v>
       </c>
@@ -49183,7 +49228,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="525" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>3115</v>
       </c>
@@ -49245,7 +49290,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="526" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>3116</v>
       </c>
@@ -49307,7 +49352,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="527" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>3117</v>
       </c>
@@ -49366,7 +49411,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="528" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>3118</v>
       </c>
@@ -49428,7 +49473,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="529" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>3119</v>
       </c>
@@ -49490,7 +49535,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="530" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>3120</v>
       </c>
@@ -49552,7 +49597,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="531" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>3121</v>
       </c>
@@ -49611,7 +49656,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="532" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>3122</v>
       </c>
@@ -49670,7 +49715,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="533" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>3123</v>
       </c>
@@ -49729,7 +49774,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="534" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>3124</v>
       </c>
@@ -49791,7 +49836,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="535" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>3125</v>
       </c>
@@ -49853,7 +49898,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="536" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>3126</v>
       </c>
@@ -49915,7 +49960,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="537" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>3127</v>
       </c>
@@ -49977,7 +50022,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="538" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>3128</v>
       </c>
@@ -50039,7 +50084,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="539" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>3129</v>
       </c>
@@ -50098,7 +50143,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="540" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>3130</v>
       </c>
@@ -50160,7 +50205,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="541" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>3131</v>
       </c>
@@ -50219,7 +50264,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="542" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>3156</v>
       </c>
@@ -50284,7 +50329,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="543" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>3240</v>
       </c>
@@ -50343,7 +50388,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="544" spans="1:30" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:30" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>3252</v>
       </c>
@@ -50399,7 +50444,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="545" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>3254</v>
       </c>
@@ -50461,7 +50506,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="546" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>3261</v>
       </c>
@@ -50523,7 +50568,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="547" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>3262</v>
       </c>
@@ -50585,7 +50630,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="548" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>3263</v>
       </c>
@@ -50647,7 +50692,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="549" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>3264</v>
       </c>
@@ -50709,7 +50754,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="550" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>2631</v>
       </c>
@@ -50777,7 +50822,7 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="551" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>2240</v>
       </c>
@@ -50812,7 +50857,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="552" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>2290</v>
       </c>
@@ -50889,7 +50934,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="553" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>2505</v>
       </c>
@@ -50954,7 +50999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>2307</v>
       </c>
@@ -51019,7 +51064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="555" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>2317</v>
       </c>
@@ -51096,7 +51141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>2242</v>
       </c>
@@ -51131,7 +51176,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="557" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>2343</v>
       </c>
@@ -51196,7 +51241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="558" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>2238</v>
       </c>
@@ -51231,7 +51276,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="559" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>3265</v>
       </c>
@@ -51296,7 +51341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>2368</v>
       </c>
@@ -51364,7 +51409,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="561" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>2375</v>
       </c>
@@ -51429,7 +51474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="562" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>2312</v>
       </c>
@@ -51506,7 +51551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>2394</v>
       </c>
@@ -51574,7 +51619,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="564" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>2416</v>
       </c>
@@ -51651,7 +51696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>2243</v>
       </c>
@@ -51686,7 +51731,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="566" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>3266</v>
       </c>
@@ -51751,7 +51796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="567" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>2388</v>
       </c>
@@ -51819,7 +51864,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="568" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>2413</v>
       </c>
@@ -51896,7 +51941,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="569" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>2510</v>
       </c>
@@ -51964,7 +52009,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="570" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>2943</v>
       </c>
@@ -52041,7 +52086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>2525</v>
       </c>
@@ -52106,7 +52151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="572" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>2244</v>
       </c>
@@ -52141,7 +52186,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="573" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>3267</v>
       </c>
@@ -52206,7 +52251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>2411</v>
       </c>
@@ -52274,7 +52319,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="575" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>2420</v>
       </c>
@@ -52351,7 +52396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>2511</v>
       </c>
@@ -52416,7 +52461,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="577" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>2529</v>
       </c>
@@ -52484,7 +52529,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="578" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>3022</v>
       </c>
@@ -52519,7 +52564,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="579" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>3268</v>
       </c>
@@ -52584,7 +52629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="580" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>2442</v>
       </c>
@@ -52649,7 +52694,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="581" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>2422</v>
       </c>
@@ -52726,7 +52771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>2566</v>
       </c>
@@ -52791,7 +52836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="583" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>2562</v>
       </c>
@@ -52859,7 +52904,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="584" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>2433</v>
       </c>
@@ -52936,7 +52981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>2604</v>
       </c>
@@ -53004,7 +53049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="586" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>2515</v>
       </c>
@@ -53069,7 +53114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>2563</v>
       </c>
@@ -53134,7 +53179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="588" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>2457</v>
       </c>
@@ -53211,7 +53256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>2607</v>
       </c>
@@ -53276,7 +53321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>2539</v>
       </c>
@@ -53353,7 +53398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>2813</v>
       </c>
@@ -53418,7 +53463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="592" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>2627</v>
       </c>
@@ -53486,7 +53531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>2618</v>
       </c>
@@ -53551,7 +53596,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="594" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>2543</v>
       </c>
@@ -53628,7 +53673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>2841</v>
       </c>
@@ -53696,7 +53741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="596" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>2676</v>
       </c>
@@ -53761,7 +53806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>2620</v>
       </c>
@@ -53829,7 +53874,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="598" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>2569</v>
       </c>
@@ -53906,7 +53951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>2851</v>
       </c>
@@ -53974,7 +54019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="600" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>2680</v>
       </c>
@@ -54042,7 +54087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>2643</v>
       </c>
@@ -54107,7 +54152,7 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="602" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>2575</v>
       </c>
@@ -54184,7 +54229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>3021</v>
       </c>
@@ -54219,7 +54264,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="604" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A604" s="1">
         <v>2681</v>
       </c>
@@ -54284,7 +54329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A605" s="1">
         <v>2719</v>
       </c>
@@ -54349,7 +54394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A606" s="1">
         <v>2606</v>
       </c>
@@ -54426,7 +54471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A607" s="1">
         <v>2898</v>
       </c>
@@ -54491,7 +54536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="608" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A608" s="1">
         <v>2690</v>
       </c>
@@ -54559,7 +54604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="609" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A609" s="1">
         <v>2629</v>
       </c>
@@ -54636,7 +54681,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="610" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A610" s="1">
         <v>2904</v>
       </c>
@@ -54701,7 +54746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="611" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A611" s="1">
         <v>2675</v>
       </c>
@@ -54781,7 +54826,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="612" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A612" s="1">
         <v>2908</v>
       </c>
@@ -54846,7 +54891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="613" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A613" s="1">
         <v>2685</v>
       </c>
@@ -54923,7 +54968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A614" s="1">
         <v>2820</v>
       </c>
@@ -54988,7 +55033,7 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="615" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A615" s="1">
         <v>2785</v>
       </c>
@@ -55056,7 +55101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A616" s="1">
         <v>2946</v>
       </c>
@@ -55124,7 +55169,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="617" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A617" s="1">
         <v>2702</v>
       </c>
@@ -55201,7 +55246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A618" s="1">
         <v>2835</v>
       </c>
@@ -55266,7 +55311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="619" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A619" s="1">
         <v>2799</v>
       </c>
@@ -55331,7 +55376,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="620" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A620" s="1">
         <v>3269</v>
       </c>
@@ -55390,7 +55435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="621" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A621" s="1">
         <v>2734</v>
       </c>
@@ -55464,7 +55509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A622" s="1">
         <v>2862</v>
       </c>
@@ -55529,7 +55574,7 @@
         <v>45326</v>
       </c>
     </row>
-    <row r="623" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A623" s="1">
         <v>2874</v>
       </c>
@@ -55594,7 +55639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A624" s="1">
         <v>3271</v>
       </c>
@@ -55650,7 +55695,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A625" s="1">
         <v>2736</v>
       </c>
@@ -55727,7 +55772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A626" s="1">
         <v>2740</v>
       </c>
@@ -55804,7 +55849,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="627" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A627" s="1">
         <v>2897</v>
       </c>
@@ -55869,7 +55914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A628" s="1">
         <v>3161</v>
       </c>
@@ -55931,7 +55976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A629" s="1">
         <v>2761</v>
       </c>
@@ -56008,7 +56053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A630" s="1">
         <v>2995</v>
       </c>
@@ -56076,7 +56121,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="631" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A631" s="1">
         <v>3270</v>
       </c>
@@ -56141,7 +56186,7 @@
         <v>45359</v>
       </c>
     </row>
-    <row r="632" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="632" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A632" s="1">
         <v>2764</v>
       </c>
@@ -56218,7 +56263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="633" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A633" s="1">
         <v>2998</v>
       </c>
@@ -56286,7 +56331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="634" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A634" s="1">
         <v>2802</v>
       </c>
@@ -56363,7 +56408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A635" s="1">
         <v>2804</v>
       </c>
@@ -56434,7 +56479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="636" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A636" s="1">
         <v>2890</v>
       </c>
@@ -56514,7 +56559,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="637" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A637" s="1">
         <v>2906</v>
       </c>
@@ -56591,7 +56636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A638" s="1">
         <v>3020</v>
       </c>
@@ -56626,7 +56671,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="639" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A639" s="1">
         <v>2934</v>
       </c>
@@ -56703,7 +56748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:50" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:50" ht="13" x14ac:dyDescent="0.15">
       <c r="A640" s="1">
         <v>2953</v>
       </c>
@@ -56780,7 +56825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A641" s="1">
         <v>2959</v>
       </c>
@@ -56857,7 +56902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A642" s="1">
         <v>2967</v>
       </c>
@@ -56934,7 +56979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A643" s="1">
         <v>2981</v>
       </c>
@@ -57011,7 +57056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A644" s="1">
         <v>2985</v>
       </c>
@@ -57088,7 +57133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="645" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A645" s="1">
         <v>2994</v>
       </c>
@@ -57168,7 +57213,7 @@
         <v>45418</v>
       </c>
     </row>
-    <row r="646" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A646" s="1">
         <v>2639</v>
       </c>
@@ -57221,7 +57266,7 @@
         <v>3977</v>
       </c>
     </row>
-    <row r="647" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A647" s="1">
         <v>2572</v>
       </c>
@@ -57274,7 +57319,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="648" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A648" s="1">
         <v>2322</v>
       </c>
@@ -57327,7 +57372,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="649" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A649" s="1">
         <v>2555</v>
       </c>
@@ -57398,7 +57443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="650" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="650" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A650" s="1">
         <v>2945</v>
       </c>
@@ -57475,7 +57520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="651" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="651" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A651" s="1">
         <v>3023</v>
       </c>
@@ -57549,7 +57594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="652" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="652" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A652" s="1">
         <v>2829</v>
       </c>
@@ -57602,7 +57647,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="653" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="653" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A653" s="1">
         <v>2576</v>
       </c>
@@ -57658,7 +57703,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="654" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="654" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A654" s="1">
         <v>2285</v>
       </c>
@@ -57729,7 +57774,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="655" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A655" s="1">
         <v>2287</v>
       </c>
@@ -57800,7 +57845,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="656" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="656" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A656" s="1">
         <v>2324</v>
       </c>
@@ -57856,7 +57901,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="657" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A657" s="1">
         <v>3025</v>
       </c>
@@ -57930,7 +57975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="658" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A658" s="1">
         <v>3026</v>
       </c>
@@ -58004,7 +58049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="659" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="659" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A659" s="1">
         <v>2960</v>
       </c>
@@ -58057,7 +58102,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="660" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A660" s="1">
         <v>2831</v>
       </c>
@@ -58110,7 +58155,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="661" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="661" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A661" s="1">
         <v>2365</v>
       </c>
@@ -58181,7 +58226,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="662" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="662" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A662" s="1">
         <v>2310</v>
       </c>
@@ -58252,7 +58297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="663" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A663" s="1">
         <v>2932</v>
       </c>
@@ -58323,7 +58368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="664" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="664" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A664" s="1">
         <v>2360</v>
       </c>
@@ -58379,7 +58424,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="665" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="665" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A665" s="1">
         <v>3027</v>
       </c>
@@ -58453,7 +58498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="666" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="666" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A666" s="1">
         <v>3000</v>
       </c>
@@ -58506,7 +58551,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="667" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="667" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A667" s="1">
         <v>2909</v>
       </c>
@@ -58559,7 +58604,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="668" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="668" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A668" s="1">
         <v>2527</v>
       </c>
@@ -58630,7 +58675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A669" s="1">
         <v>2321</v>
       </c>
@@ -58701,7 +58746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="670" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A670" s="1">
         <v>2410</v>
       </c>
@@ -58754,7 +58799,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="671" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="671" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A671" s="1">
         <v>2588</v>
       </c>
@@ -58825,7 +58870,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="672" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="672" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A672" s="1">
         <v>2325</v>
       </c>
@@ -58896,7 +58941,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="673" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A673" s="1">
         <v>2596</v>
       </c>
@@ -58967,7 +59012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="674" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A674" s="1">
         <v>2399</v>
       </c>
@@ -59038,7 +59083,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="675" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="675" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A675" s="1">
         <v>2446</v>
       </c>
@@ -59094,7 +59139,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="676" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="676" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A676" s="1">
         <v>2615</v>
       </c>
@@ -59165,7 +59210,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="677" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="677" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A677" s="1">
         <v>2409</v>
       </c>
@@ -59236,7 +59281,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="678" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A678" s="1">
         <v>2473</v>
       </c>
@@ -59289,7 +59334,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="679" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="679" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A679" s="1">
         <v>2687</v>
       </c>
@@ -59360,7 +59405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="680" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A680" s="1">
         <v>2475</v>
       </c>
@@ -59413,7 +59458,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="681" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="681" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A681" s="1">
         <v>2488</v>
       </c>
@@ -59466,7 +59511,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="682" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="682" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A682" s="1">
         <v>2452</v>
       </c>
@@ -59537,7 +59582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A683" s="1">
         <v>2790</v>
       </c>
@@ -59608,7 +59653,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="684" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="684" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A684" s="1">
         <v>2512</v>
       </c>
@@ -59661,7 +59706,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="685" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="685" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A685" s="1">
         <v>2463</v>
       </c>
@@ -59732,7 +59777,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="686" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="686" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A686" s="1">
         <v>2977</v>
       </c>
@@ -59803,7 +59848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="687" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A687" s="1">
         <v>2482</v>
       </c>
@@ -59874,7 +59919,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="688" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="688" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A688" s="1">
         <v>2996</v>
       </c>
@@ -59945,7 +59990,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="689" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="689" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A689" s="1">
         <v>2590</v>
       </c>
@@ -60004,7 +60049,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="690" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="690" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A690" s="1">
         <v>2579</v>
       </c>
@@ -60075,7 +60120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="691" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A691" s="1">
         <v>3244</v>
       </c>
@@ -60146,7 +60191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="692" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A692" s="1">
         <v>2679</v>
       </c>
@@ -60199,7 +60244,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="693" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="693" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A693" s="1">
         <v>2580</v>
       </c>
@@ -60270,7 +60315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="694" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A694" s="1">
         <v>2776</v>
       </c>
@@ -60323,7 +60368,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="695" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="695" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A695" s="1">
         <v>2598</v>
       </c>
@@ -60394,7 +60439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="696" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A696" s="1">
         <v>2888</v>
       </c>
@@ -60447,7 +60492,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="697" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="697" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A697" s="1">
         <v>2636</v>
       </c>
@@ -60518,7 +60563,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="698" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="698" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A698" s="1">
         <v>2924</v>
       </c>
@@ -60571,7 +60616,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="699" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="699" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A699" s="1">
         <v>2638</v>
       </c>
@@ -60642,7 +60687,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="700" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="700" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A700" s="1">
         <v>2649</v>
       </c>
@@ -60713,7 +60758,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="701" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="701" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A701" s="1">
         <v>2710</v>
       </c>
@@ -60784,7 +60829,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="702" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="702" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A702" s="1">
         <v>2837</v>
       </c>
@@ -60855,7 +60900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="703" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A703" s="1">
         <v>2875</v>
       </c>
@@ -60926,7 +60971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A704" s="1">
         <v>2891</v>
       </c>
@@ -60997,7 +61042,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="705" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="705" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A705" s="1">
         <v>2922</v>
       </c>
@@ -61068,7 +61113,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="706" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="706" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A706" s="1">
         <v>2927</v>
       </c>
@@ -61139,7 +61184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="707" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A707" s="1">
         <v>2941</v>
       </c>
@@ -61210,7 +61255,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="708" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="708" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A708" s="1">
         <v>3004</v>
       </c>
@@ -61281,7 +61326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:51" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="709" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A709" s="1">
         <v>3024</v>
       </c>
@@ -61353,13 +61398,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="305"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AY709" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -61368,8 +61407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A950931A-D895-C54F-A181-39C187FBD8AC}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -62097,4 +62136,1451 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46EAD5C-8856-9442-A4BC-B137AB9B97F6}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="62" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4318</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="B2" s="10">
+        <f>_xlfn.XLOOKUP(A2,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2487</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2487</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>C2&amp;","</f>
+        <v>2487,</v>
+      </c>
+      <c r="E2" s="10">
+        <f>_xlfn.XLOOKUP(B2,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G2" s="8">
+        <f>VLOOKUP(F2,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B3" s="10">
+        <f>_xlfn.XLOOKUP(A3,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2801</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2801</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D51" si="0">C3&amp;","</f>
+        <v>2801,</v>
+      </c>
+      <c r="E3" s="10">
+        <f>_xlfn.XLOOKUP(B3,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G3" s="8">
+        <f>VLOOKUP(F3,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B4" s="10">
+        <f>_xlfn.XLOOKUP(A4,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2827</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2827</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2827,</v>
+      </c>
+      <c r="E4" s="10">
+        <f>_xlfn.XLOOKUP(B4,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G4" s="8">
+        <f>VLOOKUP(F4,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B5" s="10">
+        <f>_xlfn.XLOOKUP(A5,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3134</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3134</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3134,</v>
+      </c>
+      <c r="E5" s="10">
+        <f>_xlfn.XLOOKUP(B5,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G5" s="8">
+        <f>VLOOKUP(F5,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B6" s="10">
+        <f>_xlfn.XLOOKUP(A6,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3160</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3160</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3160,</v>
+      </c>
+      <c r="E6" s="10">
+        <f>_xlfn.XLOOKUP(B6,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G6" s="8">
+        <f>VLOOKUP(F6,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B7" s="10">
+        <f>_xlfn.XLOOKUP(A7,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3158</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3158</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3158,</v>
+      </c>
+      <c r="E7" s="10">
+        <f>_xlfn.XLOOKUP(B7,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G7" s="8">
+        <f>VLOOKUP(F7,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B8" s="10">
+        <f>_xlfn.XLOOKUP(A8,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3272</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3272</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3272,</v>
+      </c>
+      <c r="E8" s="10">
+        <f>_xlfn.XLOOKUP(B8,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G8" s="8">
+        <f>VLOOKUP(F8,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B9" s="10">
+        <f>_xlfn.XLOOKUP(A9,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3157</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3157</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3157,</v>
+      </c>
+      <c r="E9" s="10">
+        <f>_xlfn.XLOOKUP(B9,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G9" s="8">
+        <f>VLOOKUP(F9,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B10" s="10">
+        <f>_xlfn.XLOOKUP(A10,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3273</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3273</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3273,</v>
+      </c>
+      <c r="E10" s="10">
+        <f>_xlfn.XLOOKUP(B10,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G10" s="8">
+        <f>VLOOKUP(F10,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B11" s="10">
+        <f>_xlfn.XLOOKUP(A11,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2859</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2859</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2859,</v>
+      </c>
+      <c r="E11" s="10">
+        <f>_xlfn.XLOOKUP(B11,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2256</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2256</v>
+      </c>
+      <c r="G11" s="8">
+        <f>VLOOKUP(F11,'Необходимые модули'!C:C,1,0)</f>
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B12" s="10">
+        <f>_xlfn.XLOOKUP(A12,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3140</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3140</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3140,</v>
+      </c>
+      <c r="E12" s="10">
+        <f>_xlfn.XLOOKUP(B12,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G12" s="8">
+        <f>VLOOKUP(F12,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B13" s="10">
+        <f>_xlfn.XLOOKUP(A13,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3138</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3138</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3138,</v>
+      </c>
+      <c r="E13" s="10">
+        <f>_xlfn.XLOOKUP(B13,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G13" s="8">
+        <f>VLOOKUP(F13,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B14" s="10">
+        <f>_xlfn.XLOOKUP(A14,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3165</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3165</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3165,</v>
+      </c>
+      <c r="E14" s="10">
+        <f>_xlfn.XLOOKUP(B14,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G14" s="8">
+        <f>VLOOKUP(F14,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B15" s="10">
+        <f>_xlfn.XLOOKUP(A15,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3238</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3238</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3238,</v>
+      </c>
+      <c r="E15" s="10">
+        <f>_xlfn.XLOOKUP(B15,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G15" s="8">
+        <f>VLOOKUP(F15,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B16" s="10">
+        <f>_xlfn.XLOOKUP(A16,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2432</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2432</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2432,</v>
+      </c>
+      <c r="E16" s="10">
+        <f>_xlfn.XLOOKUP(B16,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G16" s="8">
+        <f>VLOOKUP(F16,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B17" s="10">
+        <f>_xlfn.XLOOKUP(A17,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2872</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2872</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2872,</v>
+      </c>
+      <c r="E17" s="10">
+        <f>_xlfn.XLOOKUP(B17,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G17" s="8">
+        <f>VLOOKUP(F17,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B18" s="10">
+        <f>_xlfn.XLOOKUP(A18,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2749</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2749</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2749,</v>
+      </c>
+      <c r="E18" s="10">
+        <f>_xlfn.XLOOKUP(B18,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G18" s="8">
+        <f>VLOOKUP(F18,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B19" s="10">
+        <f>_xlfn.XLOOKUP(A19,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2384</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2384</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2384,</v>
+      </c>
+      <c r="E19" s="10">
+        <f>_xlfn.XLOOKUP(B19,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G19" s="8">
+        <f>VLOOKUP(F19,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B20" s="10">
+        <f>_xlfn.XLOOKUP(A20,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2818</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2818</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2818,</v>
+      </c>
+      <c r="E20" s="10">
+        <f>_xlfn.XLOOKUP(B20,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G20" s="8">
+        <f>VLOOKUP(F20,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B21" s="10">
+        <f>_xlfn.XLOOKUP(A21,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2869</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2869</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2869,</v>
+      </c>
+      <c r="E21" s="10">
+        <f>_xlfn.XLOOKUP(B21,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G21" s="8">
+        <f>VLOOKUP(F21,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B22" s="10">
+        <f>_xlfn.XLOOKUP(A22,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2367</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2367</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2367,</v>
+      </c>
+      <c r="E22" s="10">
+        <f>_xlfn.XLOOKUP(B22,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G22" s="8">
+        <f>VLOOKUP(F22,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B23" s="10">
+        <f>_xlfn.XLOOKUP(A23,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2940</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2940</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2940,</v>
+      </c>
+      <c r="E23" s="10">
+        <f>_xlfn.XLOOKUP(B23,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G23" s="8">
+        <f>VLOOKUP(F23,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B24" s="10">
+        <f>_xlfn.XLOOKUP(A24,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2467</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2467</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2467,</v>
+      </c>
+      <c r="E24" s="10">
+        <f>_xlfn.XLOOKUP(B24,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G24" s="8">
+        <f>VLOOKUP(F24,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B25" s="10">
+        <f>_xlfn.XLOOKUP(A25,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3142</v>
+      </c>
+      <c r="C25" s="8">
+        <v>3142</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3142,</v>
+      </c>
+      <c r="E25" s="10">
+        <f>_xlfn.XLOOKUP(B25,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G25" s="8">
+        <f>VLOOKUP(F25,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>2579</v>
+      </c>
+      <c r="B26" s="10">
+        <f>_xlfn.XLOOKUP(A26,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2956</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2956</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2956,</v>
+      </c>
+      <c r="E26" s="10">
+        <f>_xlfn.XLOOKUP(B26,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G26" s="8">
+        <f>VLOOKUP(F26,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B27" s="10">
+        <f>_xlfn.XLOOKUP(A27,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2976</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2976</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2976,</v>
+      </c>
+      <c r="E27" s="10">
+        <f>_xlfn.XLOOKUP(B27,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G27" s="8">
+        <f>VLOOKUP(F27,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B28" s="10">
+        <f>_xlfn.XLOOKUP(A28,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3137</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3137</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3137,</v>
+      </c>
+      <c r="E28" s="10">
+        <f>_xlfn.XLOOKUP(B28,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G28" s="8">
+        <f>VLOOKUP(F28,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>_xlfn.XLOOKUP(A29,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v/>
+      </c>
+      <c r="C29" s="8">
+        <v>3139</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3139,</v>
+      </c>
+      <c r="E29" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B29,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v/>
+      </c>
+      <c r="F29" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G29" s="8">
+        <f>VLOOKUP(F29,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B30" s="10">
+        <f>_xlfn.XLOOKUP(A30,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3136</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3136</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3136,</v>
+      </c>
+      <c r="E30" s="10">
+        <f>_xlfn.XLOOKUP(B30,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2257</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2257</v>
+      </c>
+      <c r="G30" s="8">
+        <f>VLOOKUP(F30,'Необходимые модули'!C:C,1,0)</f>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B31" s="10">
+        <f>_xlfn.XLOOKUP(A31,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3159</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3159</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3159,</v>
+      </c>
+      <c r="E31" s="10">
+        <f>_xlfn.XLOOKUP(B31,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G31" s="8">
+        <f>VLOOKUP(F31,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B32" s="10">
+        <f>_xlfn.XLOOKUP(A32,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3164</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3164</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3164,</v>
+      </c>
+      <c r="E32" s="10">
+        <f>_xlfn.XLOOKUP(B32,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G32" s="8">
+        <f>VLOOKUP(F32,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B33" s="10">
+        <f>_xlfn.XLOOKUP(A33,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3143</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3143</v>
+      </c>
+      <c r="D33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3143,</v>
+      </c>
+      <c r="E33" s="10">
+        <f>_xlfn.XLOOKUP(B33,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F33" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G33" s="8">
+        <f>VLOOKUP(F33,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B34" s="10">
+        <f>_xlfn.XLOOKUP(A34,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3162</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3162</v>
+      </c>
+      <c r="D34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3162,</v>
+      </c>
+      <c r="E34" s="10">
+        <f>_xlfn.XLOOKUP(B34,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G34" s="8">
+        <f>VLOOKUP(F34,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B35" s="10">
+        <f>_xlfn.XLOOKUP(A35,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3232</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3232</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3232,</v>
+      </c>
+      <c r="E35" s="10">
+        <f>_xlfn.XLOOKUP(B35,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G35" s="8">
+        <f>VLOOKUP(F35,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B36" s="10">
+        <f>_xlfn.XLOOKUP(A36,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2591</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2591</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2591,</v>
+      </c>
+      <c r="E36" s="10">
+        <f>_xlfn.XLOOKUP(B36,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G36" s="8">
+        <f>VLOOKUP(F36,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B37" s="10">
+        <f>_xlfn.XLOOKUP(A37,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2885</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2885</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2885,</v>
+      </c>
+      <c r="E37" s="10">
+        <f>_xlfn.XLOOKUP(B37,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F37" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G37" s="8">
+        <f>VLOOKUP(F37,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B38" s="10">
+        <f>_xlfn.XLOOKUP(A38,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2729</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2729</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2729,</v>
+      </c>
+      <c r="E38" s="10">
+        <f>_xlfn.XLOOKUP(B38,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G38" s="8">
+        <f>VLOOKUP(F38,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B39" s="10">
+        <f>_xlfn.XLOOKUP(A39,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2553</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2553</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2553,</v>
+      </c>
+      <c r="E39" s="10">
+        <f>_xlfn.XLOOKUP(B39,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G39" s="8">
+        <f>VLOOKUP(F39,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B40" s="10">
+        <f>_xlfn.XLOOKUP(A40,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2844</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2844</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2844,</v>
+      </c>
+      <c r="E40" s="10">
+        <f>_xlfn.XLOOKUP(B40,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G40" s="8">
+        <f>VLOOKUP(F40,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B41" s="10">
+        <f>_xlfn.XLOOKUP(A41,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2856</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2856</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2856,</v>
+      </c>
+      <c r="E41" s="10">
+        <f>_xlfn.XLOOKUP(B41,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G41" s="8">
+        <f>VLOOKUP(F41,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B42" s="10">
+        <f>_xlfn.XLOOKUP(A42,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2948</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2948</v>
+      </c>
+      <c r="D42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2948,</v>
+      </c>
+      <c r="E42" s="10">
+        <f>_xlfn.XLOOKUP(B42,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G42" s="8">
+        <f>VLOOKUP(F42,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B43" s="10">
+        <f>_xlfn.XLOOKUP(A43,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2586</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2586</v>
+      </c>
+      <c r="D43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2586,</v>
+      </c>
+      <c r="E43" s="10">
+        <f>_xlfn.XLOOKUP(B43,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G43" s="8">
+        <f>VLOOKUP(F43,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B44" s="10">
+        <f>_xlfn.XLOOKUP(A44,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3163</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3163</v>
+      </c>
+      <c r="D44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3163,</v>
+      </c>
+      <c r="E44" s="10">
+        <f>_xlfn.XLOOKUP(B44,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G44" s="8">
+        <f>VLOOKUP(F44,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B45" s="10">
+        <f>_xlfn.XLOOKUP(A45,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2973</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2973</v>
+      </c>
+      <c r="D45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2973,</v>
+      </c>
+      <c r="E45" s="10">
+        <f>_xlfn.XLOOKUP(B45,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G45" s="8">
+        <f>VLOOKUP(F45,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B46" s="10">
+        <f>_xlfn.XLOOKUP(A46,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2328</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2328</v>
+      </c>
+      <c r="D46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2328,</v>
+      </c>
+      <c r="E46" s="10">
+        <f>_xlfn.XLOOKUP(B46,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G46" s="8">
+        <f>VLOOKUP(F46,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B47" s="10">
+        <f>_xlfn.XLOOKUP(A47,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3166</v>
+      </c>
+      <c r="C47" s="8">
+        <v>3166</v>
+      </c>
+      <c r="D47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3166,</v>
+      </c>
+      <c r="E47" s="10">
+        <f>_xlfn.XLOOKUP(B47,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G47" s="8">
+        <f>VLOOKUP(F47,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B48" s="10">
+        <f>_xlfn.XLOOKUP(A48,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2699</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2699</v>
+      </c>
+      <c r="D48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2699,</v>
+      </c>
+      <c r="E48" s="10">
+        <f>_xlfn.XLOOKUP(B48,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G48" s="8">
+        <f>VLOOKUP(F48,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B49" s="10">
+        <f>_xlfn.XLOOKUP(A49,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2823</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2823</v>
+      </c>
+      <c r="D49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2823,</v>
+      </c>
+      <c r="E49" s="10">
+        <f>_xlfn.XLOOKUP(B49,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G49" s="8">
+        <f>VLOOKUP(F49,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B50" s="10">
+        <f>_xlfn.XLOOKUP(A50,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>3239</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3239</v>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>3239,</v>
+      </c>
+      <c r="E50" s="10">
+        <f>_xlfn.XLOOKUP(B50,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G50" s="8">
+        <f>VLOOKUP(F50,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="B51" s="10">
+        <f>_xlfn.XLOOKUP(A51,export_ledexpress.csv!B:B,export_ledexpress.csv!A:A,"",0)</f>
+        <v>2462</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2462</v>
+      </c>
+      <c r="D51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>2462,</v>
+      </c>
+      <c r="E51" s="10">
+        <f>_xlfn.XLOOKUP(B51,export_ledexpress.csv!A:A,export_ledexpress.csv!F:F,"",0)</f>
+        <v>2258</v>
+      </c>
+      <c r="F51" s="8">
+        <v>2258</v>
+      </c>
+      <c r="G51" s="8">
+        <f>VLOOKUP(F51,'Необходимые модули'!C:C,1,0)</f>
+        <v>2258</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-zelenyj/" xr:uid="{67BB445D-E89C-EA42-A528-F69367016096}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-krasnyj/" xr:uid="{01C3FE01-FFFB-A74A-8FF6-4D4CA73274DD}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-zheltyj/" xr:uid="{6847C11A-4DAC-2349-A9FB-B39B82EB8AA1}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-belyj/" xr:uid="{6CD2C887-6208-5640-BF18-A1D30CE102A5}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-zelenyj-smd/" xr:uid="{D3A3A04D-B5AA-EE4A-81D8-1D8D5F27C448}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-krasnyj-smd/" xr:uid="{BE0FB8E6-0665-4A40-BBAA-E6D78E148021}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-zheltyj-smd/" xr:uid="{B7181FAF-2FBD-CA43-A982-7C8C49BD38B1}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-belyj-smd/" xr:uid="{979D922A-FAE7-9F47-A232-5A5EE92F9A20}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/modul-p10-320-160-meiyad-ulichnyj-goluboj-smd/" xr:uid="{63942586-D715-324F-ADEB-40DEA3903B3E}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://ledexpress.ru/shop/svetodiodnye-moduli/monohrom/svetodiodnyj-modul-qiangli-p10-krasnyj-smd/" xr:uid="{1761AF14-E13A-104F-A911-09C2C7221FD6}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q4-eco-320160-indoor/" xr:uid="{2139E3EB-DE12-CD4F-B20A-995D9C983654}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q4-pro-320160-indoor/" xr:uid="{9FC5F278-31E0-5949-BAA2-88FE7C2C1D18}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/modul-p4-smd-320-160-royal-inter-ernyj/" xr:uid="{32C47697-F686-B642-A4AD-6C8DCC1B6BF8}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/modul-p4-smd-256-128-royal-inter-ernyj/" xr:uid="{FD999D7C-5A32-6B4B-BA67-E97AB6FAE5BA}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q3-07-eco-320-160-indoor/" xr:uid="{13A06613-D270-8D48-8B49-3B11654DACA8}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q3-07-pro-320-160-indoor-b-maski/" xr:uid="{A388F843-B4FF-BE4B-9327-505D32A66B6C}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q3-eco-192-192-indoor-b-maski/" xr:uid="{444D9527-E2A8-A048-A7C0-0428F8DE325D}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q3-pro-192-192-indoor-b-maski/" xr:uid="{B9128247-ECE4-7441-B27E-87ABB8D2AC46}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q2-5-eco-320-160-indoor/" xr:uid="{E22923FD-9090-4142-8773-5C2C1AE72A3C}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q2-5-pro-320-160-indoor/" xr:uid="{A89A07CD-5336-CE4D-BAF4-7B43B2B90B1A}"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q2-eco-320-160-indoor/" xr:uid="{C6A98BC6-2B7F-C040-AE2E-6DDF229E3567}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q2-pro-320-160-indoor/" xr:uid="{6CEAC084-08A6-7C4F-92A9-D30145545593}"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-86-eco-320-160-indoor/" xr:uid="{92EDAD02-1193-9A46-9BC1-BA0060CD5027}"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-86-pro-320-160-indoor/" xr:uid="{6A7324EE-BB60-C84A-8211-BBCDF07E9219}"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-66-pro-320-160-indoor/" xr:uid="{6EE4705A-FD46-9E46-B79F-81B5A68B630C}"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-53-rgb-320-160-indoor/" xr:uid="{6D083E54-6FF0-2246-A9F3-20B05C236223}"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-37-rgb-320-160-indoor/" xr:uid="{0E86963A-E917-D346-8327-DA30B6B7686C}"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-25-rgb-320-160-indoor/" xr:uid="{810E3033-7C6A-6249-A923-E2E72106C651}"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-inter-ernye/svetodiodnyj-modul-qiangli-q1-rgb-320-160-indoor/" xr:uid="{63C40AF9-6401-324F-84F4-BB509635FCD1}"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p10-smd-320-160-meiyad-ulichnyj-1-4-scan/" xr:uid="{4554DFE8-47D3-BC4B-8FF3-9FDC2111FE84}"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p10-smd-320-160-royal-ulichnyj/" xr:uid="{D61B9FE0-CD48-784E-8BC8-DE58279FD6FB}"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q10-320-160-outdoor/" xr:uid="{3A43D860-A729-F249-A8E3-2F07A09DAE87}"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p8-smd-320-160-royal-ulichnyj/" xr:uid="{5CABD65F-E7E2-494F-AD94-A2BF5F98210C}"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p8-smd-256-128-royal-ulichnyj/" xr:uid="{0FCE8B92-F94D-6042-BF92-8085029A1602}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q8-eco-320-160-outdoor/" xr:uid="{84F33D72-67C7-1B46-BE7B-616C803D5610}"/>
+    <hyperlink ref="A37" r:id="rId36" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-q8-pro-smd-320-160-qiang-li-chang-li-ulichnyj-1-5-scan/" xr:uid="{96527FFE-21C8-FC47-AA8B-49925D6D63FB}"/>
+    <hyperlink ref="A38" r:id="rId37" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q6-66-eco-320-160-outdoor/" xr:uid="{35851F60-77FC-3C4C-81E3-362EBBB712E6}"/>
+    <hyperlink ref="A39" r:id="rId38" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q6-66-pro-320-160-outdoor/" xr:uid="{8373F058-FD40-AC46-BB03-CC46029C1187}"/>
+    <hyperlink ref="A40" r:id="rId39" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-q6-eco-smd-192-192-qiang-li-chang-li-ulichnyj-1-8-scan/" xr:uid="{7B78F9C2-4CDD-4D49-A391-C8AF96E07821}"/>
+    <hyperlink ref="A41" r:id="rId40" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-q6-pro-smd-192-192-qiang-li-chang-li-ulichnyj-1-8-scan/" xr:uid="{79C32766-F3ED-D74D-8366-0B157214285C}"/>
+    <hyperlink ref="A42" r:id="rId41" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q5-eco-320-160-outdoor/" xr:uid="{14A4B216-EA18-5241-9115-D16975C5A469}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q5-pro-320-160-outdoor/" xr:uid="{50241560-377B-0D46-9798-BDC5DB53D28B}"/>
+    <hyperlink ref="A44" r:id="rId43" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p5-smd-320-160-royal-ulichnyj/" xr:uid="{84A92CF5-AC38-D24E-A56E-35E3255C3600}"/>
+    <hyperlink ref="A45" r:id="rId44" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q4-eco-320-160-outdoor/" xr:uid="{746CC4A0-0691-3F4C-959E-894FC8294982}"/>
+    <hyperlink ref="A46" r:id="rId45" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q4-pro-320-160-outdoor/" xr:uid="{51960E0C-79CC-D047-A597-B29488363D8D}"/>
+    <hyperlink ref="A47" r:id="rId46" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p4-smd-320-160-royal-ulichnyj/" xr:uid="{7837F630-5D73-5B4C-8BEE-4C29D784A9D4}"/>
+    <hyperlink ref="A48" r:id="rId47" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q3-07-eco-320-160-outdoor/" xr:uid="{213FA9FA-D949-1C4E-A0FB-58DCFDB89C15}"/>
+    <hyperlink ref="A49" r:id="rId48" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q3-07-pro-320-160-outdoor/" xr:uid="{81F2AFC4-7732-E84F-9007-94F33815D986}"/>
+    <hyperlink ref="A50" r:id="rId49" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/modul-p3-07-smd-320-160-royal-ulichnyj-3840-hz/" xr:uid="{487F0643-8992-F543-ADB3-0F51B552472C}"/>
+    <hyperlink ref="A51" r:id="rId50" display="https://ledexpress.ru/shop/svetodiodnye-moduli/polnocvetnye-ulichnye/svetodiodnyj-modul-qiangli-q2-5-pro-320-160-outdoor/" xr:uid="{6B0842BC-81A2-0642-8741-998AA2D191B6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>